--- a/02-reportes-scripts/00-acomodaciones/05-inspeccion-corr.xlsx
+++ b/02-reportes-scripts/00-acomodaciones/05-inspeccion-corr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t xml:space="preserve">base</t>
   </si>
@@ -251,12 +251,18 @@
     <t xml:space="preserve">p12_08</t>
   </si>
   <si>
-    <t xml:space="preserve">DOC2SGEN_PERTEC</t>
+    <t xml:space="preserve">DOC2SGEN_PERTECNEG</t>
   </si>
   <si>
     <t xml:space="preserve">p13_07</t>
   </si>
   <si>
+    <t xml:space="preserve">p13_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_PERTECPOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">p13_08</t>
   </si>
   <si>
@@ -264,18 +270,6 @@
   </si>
   <si>
     <t xml:space="preserve">p13_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SLEC_CODIDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16</t>
   </si>
   <si>
     <t xml:space="preserve">EM2022_2SdocenteCYT_EBR</t>
@@ -1025,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1034,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.755860233197666</v>
+        <v>0.755860233197192</v>
       </c>
       <c r="H8" t="n">
-        <v>0.775554114690136</v>
+        <v>0.775554114689794</v>
       </c>
     </row>
     <row r="9">
@@ -1051,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1060,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7712405823955</v>
+        <v>0.771240582395146</v>
       </c>
       <c r="H9" t="n">
-        <v>0.775554114690136</v>
+        <v>0.775554114689794</v>
       </c>
     </row>
     <row r="10">
@@ -1077,7 +1071,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1086,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.701804113717459</v>
+        <v>0.701804113717416</v>
       </c>
       <c r="H10" t="n">
-        <v>0.775554114690136</v>
+        <v>0.775554114689794</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1097,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1112,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.865809537142389</v>
+        <v>0.865809537142588</v>
       </c>
       <c r="H11" t="n">
-        <v>0.775554114690136</v>
+        <v>0.775554114689794</v>
       </c>
     </row>
     <row r="12">
@@ -1129,7 +1123,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1138,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.853031899280387</v>
+        <v>0.853031899279767</v>
       </c>
       <c r="H12" t="n">
-        <v>0.775554114690136</v>
+        <v>0.775554114689794</v>
       </c>
     </row>
     <row r="13">
@@ -1155,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1164,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.668783381557738</v>
+        <v>0.668783381556858</v>
       </c>
       <c r="H13" t="n">
-        <v>0.775554114690136</v>
+        <v>0.775554114689794</v>
       </c>
     </row>
     <row r="14">
@@ -1181,7 +1175,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -1190,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.750675156521636</v>
+        <v>0.750675156521368</v>
       </c>
       <c r="H14" t="n">
-        <v>0.775554114690136</v>
+        <v>0.775554114689794</v>
       </c>
     </row>
     <row r="15">
@@ -2374,10 +2368,10 @@
         <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -2386,10 +2380,10 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.818436778332887</v>
+        <v>0.795476236409173</v>
       </c>
       <c r="H60" t="n">
-        <v>0.862500155469712</v>
+        <v>0.767934994714087</v>
       </c>
     </row>
     <row r="61">
@@ -2400,10 +2394,10 @@
         <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -2412,10 +2406,10 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0.906849777127968</v>
+        <v>0.745520669267478</v>
       </c>
       <c r="H61" t="n">
-        <v>0.862500155469712</v>
+        <v>0.767934994714087</v>
       </c>
     </row>
     <row r="62">
@@ -2426,10 +2420,10 @@
         <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -2438,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.851038553513509</v>
+        <v>0.766615787431271</v>
       </c>
       <c r="H62" t="n">
-        <v>0.862500155469712</v>
+        <v>0.767934994714087</v>
       </c>
     </row>
     <row r="63">
@@ -2452,10 +2446,10 @@
         <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -2464,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.811188004300493</v>
+        <v>0.774813928015432</v>
       </c>
       <c r="H63" t="n">
-        <v>0.862500155469712</v>
+        <v>0.767934994714087</v>
       </c>
     </row>
     <row r="64">
@@ -2475,13 +2469,13 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -2490,10 +2484,10 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.879704818120689</v>
+        <v>0.75385639847382</v>
       </c>
       <c r="H64" t="n">
-        <v>0.862500155469712</v>
+        <v>0.819544836726484</v>
       </c>
     </row>
     <row r="65">
@@ -2501,13 +2495,13 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -2516,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.864830529318034</v>
+        <v>0.804762887918868</v>
       </c>
       <c r="H65" t="n">
-        <v>0.862500155469712</v>
+        <v>0.819544836726484</v>
       </c>
     </row>
     <row r="66">
@@ -2527,13 +2521,13 @@
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -2542,10 +2536,10 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0.90227824045512</v>
+        <v>0.878164711622094</v>
       </c>
       <c r="H66" t="n">
-        <v>0.862500155469712</v>
+        <v>0.819544836726484</v>
       </c>
     </row>
     <row r="67">
@@ -2553,13 +2547,13 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -2568,10 +2562,10 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.877140996048592</v>
+        <v>0.819498806706679</v>
       </c>
       <c r="H67" t="n">
-        <v>0.862500155469712</v>
+        <v>0.819544836726484</v>
       </c>
     </row>
     <row r="68">
@@ -2579,13 +2573,13 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -2594,10 +2588,10 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.842755490773104</v>
+        <v>0.846571101086402</v>
       </c>
       <c r="H68" t="n">
-        <v>0.862500155469712</v>
+        <v>0.819544836726484</v>
       </c>
     </row>
     <row r="69">
@@ -2605,13 +2599,13 @@
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -2620,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0.876029922067831</v>
+        <v>0.788240532745165</v>
       </c>
       <c r="H69" t="n">
-        <v>0.862500155469712</v>
+        <v>0.819544836726484</v>
       </c>
     </row>
     <row r="70">
@@ -2631,13 +2625,13 @@
         <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -2646,154 +2640,154 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.863321418615713</v>
+        <v>0.868263319080013</v>
       </c>
       <c r="H70" t="n">
-        <v>0.862500155469712</v>
+        <v>0.819544836726484</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.492321601860249</v>
+        <v>0.76312808498158</v>
       </c>
       <c r="H71" t="n">
-        <v>0.622955833282148</v>
+        <v>0.773887105645654</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0.648692274573187</v>
+        <v>0.73681706692615</v>
       </c>
       <c r="H72" t="n">
-        <v>0.622955833282148</v>
+        <v>0.773887105645654</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0.662111711034129</v>
+        <v>0.854865159260893</v>
       </c>
       <c r="H73" t="n">
-        <v>0.622955833282148</v>
+        <v>0.773887105645654</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.690404016195944</v>
+        <v>0.772376848560246</v>
       </c>
       <c r="H74" t="n">
-        <v>0.622955833282148</v>
+        <v>0.773887105645654</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0.375513339897982</v>
+        <v>0.756499269524565</v>
       </c>
       <c r="H75" t="n">
-        <v>0.622955833282148</v>
+        <v>0.773887105645654</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
@@ -2802,50 +2796,50 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.644502704181032</v>
+        <v>0.86807235086131</v>
       </c>
       <c r="H76" t="n">
-        <v>0.622955833282148</v>
+        <v>0.777585947919062</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.418886090394701</v>
+        <v>0.80006614259876</v>
       </c>
       <c r="H77" t="n">
-        <v>0.622955833282148</v>
+        <v>0.777585947919062</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -2854,21 +2848,21 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.640944466027627</v>
+        <v>0.837998111906668</v>
       </c>
       <c r="H78" t="n">
-        <v>0.622955833282148</v>
+        <v>0.777585947919062</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -2880,21 +2874,21 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.76312808498158</v>
+        <v>0.743029448101979</v>
       </c>
       <c r="H79" t="n">
-        <v>0.773887105645654</v>
+        <v>0.777585947919062</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
@@ -2906,21 +2900,21 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.73681706692615</v>
+        <v>0.668913008408143</v>
       </c>
       <c r="H80" t="n">
-        <v>0.773887105645654</v>
+        <v>0.777585947919062</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -2932,24 +2926,24 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.854865159260893</v>
+        <v>0.759436100572032</v>
       </c>
       <c r="H81" t="n">
-        <v>0.773887105645654</v>
+        <v>0.777585947919062</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -2958,24 +2952,24 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0.772376848560246</v>
+        <v>0.730891554465246</v>
       </c>
       <c r="H82" t="n">
-        <v>0.773887105645654</v>
+        <v>0.60092705181452</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -2984,24 +2978,24 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0.756499269524565</v>
+        <v>0.641493825265899</v>
       </c>
       <c r="H83" t="n">
-        <v>0.773887105645654</v>
+        <v>0.60092705181452</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -3010,24 +3004,24 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.86807235086131</v>
+        <v>0.515335351700395</v>
       </c>
       <c r="H84" t="n">
-        <v>0.777585947919062</v>
+        <v>0.60092705181452</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -3036,50 +3030,50 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0.80006614259876</v>
+        <v>0.548839275892498</v>
       </c>
       <c r="H85" t="n">
-        <v>0.777585947919062</v>
+        <v>0.60092705181452</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.837998111906668</v>
+        <v>0.569857468285394</v>
       </c>
       <c r="H86" t="n">
-        <v>0.777585947919062</v>
+        <v>0.60092705181452</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -3088,24 +3082,24 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0.743029448101979</v>
+        <v>0.660853731444463</v>
       </c>
       <c r="H87" t="n">
-        <v>0.777585947919062</v>
+        <v>0.60092705181452</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -3114,24 +3108,24 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0.668913008408143</v>
+        <v>0.632725685813515</v>
       </c>
       <c r="H88" t="n">
-        <v>0.777585947919062</v>
+        <v>0.60092705181452</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
         <v>94</v>
       </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
       <c r="D89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -3140,24 +3134,24 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.759436100572032</v>
+        <v>0.569206955314767</v>
       </c>
       <c r="H89" t="n">
-        <v>0.777585947919062</v>
+        <v>0.60092705181452</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
@@ -3166,24 +3160,24 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0.730891554466059</v>
+        <v>0.724794987061822</v>
       </c>
       <c r="H90" t="n">
-        <v>0.600927051815473</v>
+        <v>0.868599259944792</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -3192,24 +3186,24 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0.641493825262505</v>
+        <v>0.802745878184619</v>
       </c>
       <c r="H91" t="n">
-        <v>0.600927051815473</v>
+        <v>0.868599259944792</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -3218,24 +3212,24 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0.515335351701548</v>
+        <v>0.859415930012906</v>
       </c>
       <c r="H92" t="n">
-        <v>0.600927051815473</v>
+        <v>0.868599259944792</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
@@ -3244,50 +3238,50 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5488392758929</v>
+        <v>0.863847543150159</v>
       </c>
       <c r="H93" t="n">
-        <v>0.600927051815473</v>
+        <v>0.868599259944792</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0.569857468286594</v>
+        <v>0.964491760870649</v>
       </c>
       <c r="H94" t="n">
-        <v>0.600927051815473</v>
+        <v>0.868599259944792</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -3296,24 +3290,24 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0.660853731444243</v>
+        <v>0.845708734286932</v>
       </c>
       <c r="H95" t="n">
-        <v>0.600927051815473</v>
+        <v>0.868599259944792</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
@@ -3322,24 +3316,24 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.632725685818452</v>
+        <v>0.92679886489811</v>
       </c>
       <c r="H96" t="n">
-        <v>0.600927051815473</v>
+        <v>0.868599259944792</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -3348,21 +3342,21 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0.569206955316925</v>
+        <v>0.858683417014405</v>
       </c>
       <c r="H97" t="n">
-        <v>0.600927051815473</v>
+        <v>0.868599259944792</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
@@ -3374,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0.724794987061822</v>
+        <v>0.914701328234108</v>
       </c>
       <c r="H98" t="n">
         <v>0.868599259944792</v>
@@ -3382,13 +3376,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
@@ -3400,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.802745878184619</v>
+        <v>0.842169835459721</v>
       </c>
       <c r="H99" t="n">
         <v>0.868599259944792</v>
@@ -3408,13 +3402,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3426,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0.859415930012906</v>
+        <v>0.872692009417336</v>
       </c>
       <c r="H100" t="n">
         <v>0.868599259944792</v>
@@ -3434,13 +3428,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -3452,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.863847543150159</v>
+        <v>0.940524858702877</v>
       </c>
       <c r="H101" t="n">
         <v>0.868599259944792</v>
@@ -3460,13 +3454,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -3478,21 +3472,21 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0.964491760870649</v>
+        <v>0.886105773103004</v>
       </c>
       <c r="H102" t="n">
-        <v>0.868599259944792</v>
+        <v>0.859353323887208</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -3504,21 +3498,21 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>0.845708734286932</v>
+        <v>0.923523142348247</v>
       </c>
       <c r="H103" t="n">
-        <v>0.868599259944792</v>
+        <v>0.859353323887208</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
@@ -3530,21 +3524,21 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0.92679886489811</v>
+        <v>0.801855178379938</v>
       </c>
       <c r="H104" t="n">
-        <v>0.868599259944792</v>
+        <v>0.859353323887208</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -3556,21 +3550,21 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0.858683417014405</v>
+        <v>0.798081238262209</v>
       </c>
       <c r="H105" t="n">
-        <v>0.868599259944792</v>
+        <v>0.859353323887208</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -3582,21 +3576,21 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0.914701328234108</v>
+        <v>0.791348535852426</v>
       </c>
       <c r="H106" t="n">
-        <v>0.868599259944792</v>
+        <v>0.859353323887208</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -3608,21 +3602,21 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.842169835459721</v>
+        <v>0.806394801601684</v>
       </c>
       <c r="H107" t="n">
-        <v>0.868599259944792</v>
+        <v>0.859353323887208</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C108" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -3634,21 +3628,21 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.872692009417336</v>
+        <v>0.895627778989184</v>
       </c>
       <c r="H108" t="n">
-        <v>0.868599259944792</v>
+        <v>0.859353323887208</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3660,21 +3654,21 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.940524858702877</v>
+        <v>0.812062479145328</v>
       </c>
       <c r="H109" t="n">
-        <v>0.868599259944792</v>
+        <v>0.859353323887208</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -3686,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.886105773103004</v>
+        <v>0.787609743381133</v>
       </c>
       <c r="H110" t="n">
         <v>0.859353323887208</v>
@@ -3694,14 +3688,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" t="s">
         <v>104</v>
       </c>
-      <c r="C111" t="s">
-        <v>32</v>
-      </c>
       <c r="D111" t="b">
         <v>1</v>
       </c>
@@ -3712,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0.923523142348247</v>
+        <v>0.856496974823866</v>
       </c>
       <c r="H111" t="n">
         <v>0.859353323887208</v>
@@ -3720,13 +3714,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -3738,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0.801855178379938</v>
+        <v>0.924263417445423</v>
       </c>
       <c r="H112" t="n">
         <v>0.859353323887208</v>
@@ -3746,13 +3740,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C113" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -3764,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.798081238262209</v>
+        <v>0.944072174118612</v>
       </c>
       <c r="H113" t="n">
         <v>0.859353323887208</v>
@@ -3772,13 +3766,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C114" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3790,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.791348535852426</v>
+        <v>0.865570180203152</v>
       </c>
       <c r="H114" t="n">
         <v>0.859353323887208</v>
@@ -3798,13 +3792,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B115" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -3816,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0.806394801601684</v>
+        <v>0.951936925907157</v>
       </c>
       <c r="H115" t="n">
         <v>0.859353323887208</v>
@@ -3824,13 +3818,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B116" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
@@ -3842,21 +3836,21 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>0.895627778989184</v>
+        <v>0.8663189044064</v>
       </c>
       <c r="H116" t="n">
-        <v>0.859353323887208</v>
+        <v>0.840954886455481</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
@@ -3868,21 +3862,21 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.812062479145328</v>
+        <v>0.795210761414204</v>
       </c>
       <c r="H117" t="n">
-        <v>0.859353323887208</v>
+        <v>0.840954886455481</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B118" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C118" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -3894,21 +3888,21 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>0.787609743381133</v>
+        <v>0.789952012079001</v>
       </c>
       <c r="H118" t="n">
-        <v>0.859353323887208</v>
+        <v>0.840954886455481</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C119" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -3920,21 +3914,21 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0.856496974823866</v>
+        <v>0.905290693440407</v>
       </c>
       <c r="H119" t="n">
-        <v>0.859353323887208</v>
+        <v>0.840954886455481</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B120" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C120" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -3946,21 +3940,21 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.924263417445423</v>
+        <v>0.863573814854838</v>
       </c>
       <c r="H120" t="n">
-        <v>0.859353323887208</v>
+        <v>0.840954886455481</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C121" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
@@ -3972,21 +3966,21 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.944072174118612</v>
+        <v>0.773220288454141</v>
       </c>
       <c r="H121" t="n">
-        <v>0.859353323887208</v>
+        <v>0.840954886455481</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C122" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -3998,21 +3992,21 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.865570180203152</v>
+        <v>0.832702057958974</v>
       </c>
       <c r="H122" t="n">
-        <v>0.859353323887208</v>
+        <v>0.840954886455481</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B123" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -4024,21 +4018,21 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>0.951936925907157</v>
+        <v>0.886993859418305</v>
       </c>
       <c r="H123" t="n">
-        <v>0.859353323887208</v>
+        <v>0.840954886455481</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B124" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C124" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -4050,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>0.8663189044064</v>
+        <v>0.887810053533381</v>
       </c>
       <c r="H124" t="n">
         <v>0.840954886455481</v>
@@ -4058,13 +4052,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B125" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
@@ -4076,21 +4070,21 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0.795210761414204</v>
+        <v>0.882088021351245</v>
       </c>
       <c r="H125" t="n">
-        <v>0.840954886455481</v>
+        <v>0.827828947574631</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B126" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C126" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
@@ -4102,21 +4096,21 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.789952012079001</v>
+        <v>0.828929257488954</v>
       </c>
       <c r="H126" t="n">
-        <v>0.840954886455481</v>
+        <v>0.827828947574631</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B127" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
@@ -4128,21 +4122,21 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0.905290693440407</v>
+        <v>0.895025069887796</v>
       </c>
       <c r="H127" t="n">
-        <v>0.840954886455481</v>
+        <v>0.827828947574631</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B128" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C128" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
@@ -4154,21 +4148,21 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0.863573814854838</v>
+        <v>0.807583430633351</v>
       </c>
       <c r="H128" t="n">
-        <v>0.840954886455481</v>
+        <v>0.827828947574631</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B129" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
@@ -4180,21 +4174,21 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.773220288454141</v>
+        <v>0.792754805604068</v>
       </c>
       <c r="H129" t="n">
-        <v>0.840954886455481</v>
+        <v>0.827828947574631</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B130" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C130" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
@@ -4206,21 +4200,21 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.832702057958974</v>
+        <v>0.891569055782161</v>
       </c>
       <c r="H130" t="n">
-        <v>0.840954886455481</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B131" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C131" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -4232,21 +4226,21 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0.886993859418305</v>
+        <v>0.912596422956752</v>
       </c>
       <c r="H131" t="n">
-        <v>0.840954886455481</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C132" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -4258,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>0.887810053533381</v>
+        <v>0.798090376131478</v>
       </c>
       <c r="H132" t="n">
-        <v>0.840954886455481</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="133">
@@ -4272,7 +4266,7 @@
         <v>117</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -4284,10 +4278,10 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0.882088021351245</v>
+        <v>0.860174985623231</v>
       </c>
       <c r="H133" t="n">
-        <v>0.827828947574631</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="134">
@@ -4298,7 +4292,7 @@
         <v>117</v>
       </c>
       <c r="C134" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -4310,10 +4304,10 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>0.828929257488954</v>
+        <v>0.851511875288519</v>
       </c>
       <c r="H134" t="n">
-        <v>0.827828947574631</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="135">
@@ -4324,7 +4318,7 @@
         <v>117</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
@@ -4336,10 +4330,10 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0.895025069887796</v>
+        <v>0.835781099835487</v>
       </c>
       <c r="H135" t="n">
-        <v>0.827828947574631</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="136">
@@ -4350,7 +4344,7 @@
         <v>117</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
@@ -4362,10 +4356,10 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.807583430633351</v>
+        <v>0.908897906739703</v>
       </c>
       <c r="H136" t="n">
-        <v>0.827828947574631</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="137">
@@ -4373,10 +4367,10 @@
         <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -4388,21 +4382,21 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.792754805604068</v>
+        <v>0.842236184974088</v>
       </c>
       <c r="H137" t="n">
-        <v>0.827828947574631</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>116</v>
+      </c>
+      <c r="B138" t="s">
         <v>118</v>
       </c>
-      <c r="B138" t="s">
-        <v>119</v>
-      </c>
       <c r="C138" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -4414,21 +4408,21 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>0.891569055782161</v>
+        <v>0.845662969242495</v>
       </c>
       <c r="H138" t="n">
-        <v>0.86198246215949</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>116</v>
+      </c>
+      <c r="B139" t="s">
         <v>118</v>
       </c>
-      <c r="B139" t="s">
-        <v>119</v>
-      </c>
       <c r="C139" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -4440,21 +4434,21 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>0.912596422956752</v>
+        <v>0.901114482990253</v>
       </c>
       <c r="H139" t="n">
-        <v>0.86198246215949</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>116</v>
+      </c>
+      <c r="B140" t="s">
         <v>118</v>
       </c>
-      <c r="B140" t="s">
-        <v>119</v>
-      </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
@@ -4466,21 +4460,21 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>0.798090376131478</v>
+        <v>0.882752899959062</v>
       </c>
       <c r="H140" t="n">
-        <v>0.86198246215949</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>116</v>
+      </c>
+      <c r="B141" t="s">
         <v>118</v>
       </c>
-      <c r="B141" t="s">
-        <v>119</v>
-      </c>
       <c r="C141" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -4492,22 +4486,22 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>0.860174985623231</v>
+        <v>0.876611502710582</v>
       </c>
       <c r="H141" t="n">
-        <v>0.86198246215949</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>116</v>
+      </c>
+      <c r="B142" t="s">
         <v>118</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>119</v>
       </c>
-      <c r="C142" t="s">
-        <v>53</v>
-      </c>
       <c r="D142" t="b">
         <v>1</v>
       </c>
@@ -4518,21 +4512,21 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>0.851511875288519</v>
+        <v>0.81385437235178</v>
       </c>
       <c r="H142" t="n">
-        <v>0.86198246215949</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>116</v>
+      </c>
+      <c r="B143" t="s">
         <v>118</v>
       </c>
-      <c r="B143" t="s">
-        <v>119</v>
-      </c>
       <c r="C143" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -4544,21 +4538,21 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0.835781099835487</v>
+        <v>0.803660537921549</v>
       </c>
       <c r="H143" t="n">
-        <v>0.86198246215949</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>116</v>
+      </c>
+      <c r="B144" t="s">
         <v>118</v>
       </c>
-      <c r="B144" t="s">
-        <v>119</v>
-      </c>
       <c r="C144" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -4570,21 +4564,21 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0.908897906739703</v>
+        <v>0.923562387895371</v>
       </c>
       <c r="H144" t="n">
-        <v>0.86198246215949</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>116</v>
+      </c>
+      <c r="B145" t="s">
         <v>118</v>
       </c>
-      <c r="B145" t="s">
-        <v>120</v>
-      </c>
       <c r="C145" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -4593,10 +4587,10 @@
         <v>1</v>
       </c>
       <c r="F145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.842236184974088</v>
+        <v>0.90808170461343</v>
       </c>
       <c r="H145" t="n">
         <v>0.855873234305033</v>
@@ -4604,13 +4598,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B146" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C146" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -4622,21 +4616,21 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>0.845662969242495</v>
+        <v>0.888230969948374</v>
       </c>
       <c r="H146" t="n">
-        <v>0.855873234305033</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B147" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C147" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
@@ -4648,21 +4642,21 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>0.901114482990253</v>
+        <v>0.881762263426298</v>
       </c>
       <c r="H147" t="n">
-        <v>0.855873234305033</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B148" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C148" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -4674,21 +4668,21 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>0.882752899959062</v>
+        <v>0.917136667571309</v>
       </c>
       <c r="H148" t="n">
-        <v>0.855873234305033</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
@@ -4700,21 +4694,21 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0.876611502710582</v>
+        <v>0.90763407170061</v>
       </c>
       <c r="H149" t="n">
-        <v>0.855873234305033</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B150" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C150" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
@@ -4726,21 +4720,21 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0.81385437235178</v>
+        <v>0.905302621756597</v>
       </c>
       <c r="H150" t="n">
-        <v>0.855873234305033</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C151" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
@@ -4752,21 +4746,21 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>0.803660537921549</v>
+        <v>0.892327739763538</v>
       </c>
       <c r="H151" t="n">
-        <v>0.855873234305033</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B152" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C152" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
@@ -4778,21 +4772,21 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>0.923562387895371</v>
+        <v>0.855550264447505</v>
       </c>
       <c r="H152" t="n">
-        <v>0.855873234305033</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B153" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C153" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
@@ -4801,24 +4795,24 @@
         <v>1</v>
       </c>
       <c r="F153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>0.90808170461343</v>
+        <v>0.893306639810434</v>
       </c>
       <c r="H153" t="n">
-        <v>0.855873234305033</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B154" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C154" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -4830,21 +4824,21 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0.888230969948374</v>
+        <v>0.867524960350192</v>
       </c>
       <c r="H154" t="n">
-        <v>0.892473267007893</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B155" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C155" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -4856,21 +4850,21 @@
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>0.881762263426298</v>
+        <v>0.870969133808976</v>
       </c>
       <c r="H155" t="n">
-        <v>0.892473267007893</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B156" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C156" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -4882,21 +4876,21 @@
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0.917136667571309</v>
+        <v>0.877193719572266</v>
       </c>
       <c r="H156" t="n">
-        <v>0.892473267007893</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B157" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C157" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
@@ -4908,21 +4902,21 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>0.90763407170061</v>
+        <v>0.888780877586689</v>
       </c>
       <c r="H157" t="n">
-        <v>0.892473267007893</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B158" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C158" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -4934,21 +4928,21 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>0.905302621756597</v>
+        <v>0.882177061124515</v>
       </c>
       <c r="H158" t="n">
-        <v>0.892473267007893</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
@@ -4957,24 +4951,24 @@
         <v>1</v>
       </c>
       <c r="F159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.892327739763538</v>
+        <v>0.886974250340561</v>
       </c>
       <c r="H159" t="n">
-        <v>0.892473267007893</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B160" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -4986,21 +4980,21 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>0.855550264447505</v>
+        <v>0.779779540338042</v>
       </c>
       <c r="H160" t="n">
-        <v>0.892473267007893</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B161" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C161" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D161" t="b">
         <v>1</v>
@@ -5012,21 +5006,21 @@
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>0.893306639810434</v>
+        <v>0.835139059982367</v>
       </c>
       <c r="H161" t="n">
-        <v>0.892473267007893</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B162" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C162" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
@@ -5038,21 +5032,21 @@
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>0.867524960350192</v>
+        <v>0.752271084237914</v>
       </c>
       <c r="H162" t="n">
-        <v>0.876998909573429</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B163" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C163" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -5064,21 +5058,21 @@
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>0.870969133808976</v>
+        <v>0.856355258080002</v>
       </c>
       <c r="H163" t="n">
-        <v>0.876998909573429</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C164" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -5090,21 +5084,21 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>0.877193719572266</v>
+        <v>0.950048768372738</v>
       </c>
       <c r="H164" t="n">
-        <v>0.876998909573429</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B165" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C165" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
@@ -5116,21 +5110,21 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>0.888780877586689</v>
+        <v>0.901597606477408</v>
       </c>
       <c r="H165" t="n">
-        <v>0.876998909573429</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B166" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C166" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -5142,21 +5136,21 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>0.882177061124515</v>
+        <v>0.918455411556516</v>
       </c>
       <c r="H166" t="n">
-        <v>0.876998909573429</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C167" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -5165,24 +5159,24 @@
         <v>1</v>
       </c>
       <c r="F167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0.886974250340561</v>
+        <v>0.96401443103568</v>
       </c>
       <c r="H167" t="n">
-        <v>0.804178133265818</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B168" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C168" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
@@ -5194,21 +5188,21 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>0.779779540338042</v>
+        <v>0.939322481725711</v>
       </c>
       <c r="H168" t="n">
-        <v>0.804178133265818</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B169" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C169" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -5220,21 +5214,21 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0.835139059982367</v>
+        <v>0.942094341726136</v>
       </c>
       <c r="H169" t="n">
-        <v>0.804178133265818</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C170" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -5246,21 +5240,21 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>0.752271084237914</v>
+        <v>0.960557269386782</v>
       </c>
       <c r="H170" t="n">
-        <v>0.804178133265818</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B171" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C171" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -5272,21 +5266,21 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>0.856355258080002</v>
+        <v>0.947482150944539</v>
       </c>
       <c r="H171" t="n">
-        <v>0.804178133265818</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B172" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C172" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -5298,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0.950048768372738</v>
+        <v>0.949824924414919</v>
       </c>
       <c r="H172" t="n">
         <v>0.934747993005398</v>
@@ -5306,13 +5300,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B173" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C173" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
@@ -5324,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>0.901597606477408</v>
+        <v>0.913501873733887</v>
       </c>
       <c r="H173" t="n">
         <v>0.934747993005398</v>
@@ -5332,13 +5326,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B174" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C174" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -5350,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>0.918455411556516</v>
+        <v>0.917584336976634</v>
       </c>
       <c r="H174" t="n">
         <v>0.934747993005398</v>
@@ -5358,13 +5352,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B175" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C175" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -5376,21 +5370,21 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0.96401443103568</v>
+        <v>0.943103140627284</v>
       </c>
       <c r="H175" t="n">
-        <v>0.934747993005398</v>
+        <v>0.950852631608764</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B176" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C176" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -5402,21 +5396,21 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>0.939322481725711</v>
+        <v>0.938418812080215</v>
       </c>
       <c r="H176" t="n">
-        <v>0.934747993005398</v>
+        <v>0.950852631608764</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B177" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C177" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
@@ -5428,21 +5422,21 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>0.942094341726136</v>
+        <v>0.963595899627589</v>
       </c>
       <c r="H177" t="n">
-        <v>0.934747993005398</v>
+        <v>0.950852631608764</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B178" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C178" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D178" t="b">
         <v>1</v>
@@ -5454,21 +5448,21 @@
         <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>0.960557269386782</v>
+        <v>0.972841535307988</v>
       </c>
       <c r="H178" t="n">
-        <v>0.934747993005398</v>
+        <v>0.950852631608764</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B179" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C179" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -5480,21 +5474,21 @@
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>0.947482150944539</v>
+        <v>0.966598092234203</v>
       </c>
       <c r="H179" t="n">
-        <v>0.934747993005398</v>
+        <v>0.950852631608764</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B180" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C180" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -5506,21 +5500,21 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>0.949824924414919</v>
+        <v>0.963207897208435</v>
       </c>
       <c r="H180" t="n">
-        <v>0.934747993005398</v>
+        <v>0.950852631608764</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B181" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C181" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
@@ -5532,21 +5526,21 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>0.913501873733887</v>
+        <v>0.933050195908045</v>
       </c>
       <c r="H181" t="n">
-        <v>0.934747993005398</v>
+        <v>0.950852631608764</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B182" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C182" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -5558,21 +5552,21 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>0.917584336976634</v>
+        <v>0.96703885977009</v>
       </c>
       <c r="H182" t="n">
-        <v>0.934747993005398</v>
+        <v>0.950852631608764</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B183" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C183" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
@@ -5584,217 +5578,9 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>0.943103140627284</v>
+        <v>0.929731393526467</v>
       </c>
       <c r="H183" t="n">
-        <v>0.950852631608764</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>118</v>
-      </c>
-      <c r="B184" t="s">
-        <v>153</v>
-      </c>
-      <c r="C184" t="s">
-        <v>155</v>
-      </c>
-      <c r="D184" t="b">
-        <v>1</v>
-      </c>
-      <c r="E184" t="b">
-        <v>1</v>
-      </c>
-      <c r="F184" t="b">
-        <v>1</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.938418812080215</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0.950852631608764</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>118</v>
-      </c>
-      <c r="B185" t="s">
-        <v>153</v>
-      </c>
-      <c r="C185" t="s">
-        <v>156</v>
-      </c>
-      <c r="D185" t="b">
-        <v>1</v>
-      </c>
-      <c r="E185" t="b">
-        <v>1</v>
-      </c>
-      <c r="F185" t="b">
-        <v>1</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.963595899627589</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0.950852631608764</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>118</v>
-      </c>
-      <c r="B186" t="s">
-        <v>153</v>
-      </c>
-      <c r="C186" t="s">
-        <v>157</v>
-      </c>
-      <c r="D186" t="b">
-        <v>1</v>
-      </c>
-      <c r="E186" t="b">
-        <v>1</v>
-      </c>
-      <c r="F186" t="b">
-        <v>1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.972841535307988</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0.950852631608764</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>118</v>
-      </c>
-      <c r="B187" t="s">
-        <v>153</v>
-      </c>
-      <c r="C187" t="s">
-        <v>158</v>
-      </c>
-      <c r="D187" t="b">
-        <v>1</v>
-      </c>
-      <c r="E187" t="b">
-        <v>1</v>
-      </c>
-      <c r="F187" t="b">
-        <v>1</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.966598092234203</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0.950852631608764</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>118</v>
-      </c>
-      <c r="B188" t="s">
-        <v>153</v>
-      </c>
-      <c r="C188" t="s">
-        <v>159</v>
-      </c>
-      <c r="D188" t="b">
-        <v>1</v>
-      </c>
-      <c r="E188" t="b">
-        <v>1</v>
-      </c>
-      <c r="F188" t="b">
-        <v>1</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.963207897208435</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0.950852631608764</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>118</v>
-      </c>
-      <c r="B189" t="s">
-        <v>153</v>
-      </c>
-      <c r="C189" t="s">
-        <v>160</v>
-      </c>
-      <c r="D189" t="b">
-        <v>1</v>
-      </c>
-      <c r="E189" t="b">
-        <v>1</v>
-      </c>
-      <c r="F189" t="b">
-        <v>1</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.933050195908045</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0.950852631608764</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>118</v>
-      </c>
-      <c r="B190" t="s">
-        <v>153</v>
-      </c>
-      <c r="C190" t="s">
-        <v>161</v>
-      </c>
-      <c r="D190" t="b">
-        <v>1</v>
-      </c>
-      <c r="E190" t="b">
-        <v>1</v>
-      </c>
-      <c r="F190" t="b">
-        <v>1</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.96703885977009</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0.950852631608764</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>118</v>
-      </c>
-      <c r="B191" t="s">
-        <v>153</v>
-      </c>
-      <c r="C191" t="s">
-        <v>162</v>
-      </c>
-      <c r="D191" t="b">
-        <v>1</v>
-      </c>
-      <c r="E191" t="b">
-        <v>1</v>
-      </c>
-      <c r="F191" t="b">
-        <v>1</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.929731393526467</v>
-      </c>
-      <c r="H191" t="n">
         <v>0.950852631608764</v>
       </c>
     </row>

--- a/02-reportes-scripts/00-acomodaciones/05-inspeccion-corr.xlsx
+++ b/02-reportes-scripts/00-acomodaciones/05-inspeccion-corr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t xml:space="preserve">base</t>
   </si>
@@ -44,225 +44,225 @@
     <t xml:space="preserve">DIR2SGEN_COLDOC</t>
   </si>
   <si>
+    <t xml:space="preserve">p13_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR2SGEN_CLIMDOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR2SGEN_DECIACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR2SGEN_CRAPRCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR2SGEN_CRAPRTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR2SGEN_BIENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM2022_2SdocenteCOM_EBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_BURN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p05_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_AUTDIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SLEC_ACTREF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SLEC_CLCOAPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SLEC_CLCOTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_PERTECNEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_PERTECPOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">p13_01</t>
   </si>
   <si>
-    <t xml:space="preserve">p13_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_CLIMDOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_DECIACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_CRAPRCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_CRAPRTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_BIENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM2022_2SdocenteCOM_EBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SGEN_BURN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p05_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SGEN_AUTDIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p06_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SLEC_ACTREF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SLEC_CLCOAPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SLEC_CLCOTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SGEN_PERTECNEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p13_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SGEN_PERTECPOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">p13_08</t>
   </si>
   <si>
@@ -363,6 +363,30 @@
   </si>
   <si>
     <t xml:space="preserve">EM2022_2Sestudiante_EBRD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST2SGEN_PRAER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p04_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p04_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p04_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p04_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p04_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p04_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p04_07</t>
   </si>
   <si>
     <t xml:space="preserve">EST2SGEN_ENTOR</t>
@@ -872,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.688294503863911</v>
+        <v>0.801385609357792</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7920229745018</v>
+        <v>0.814656881102291</v>
       </c>
     </row>
     <row r="3">
@@ -898,10 +922,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.735951912029712</v>
+        <v>0.830511813943055</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7920229745018</v>
+        <v>0.814656881102291</v>
       </c>
     </row>
     <row r="4">
@@ -924,10 +948,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.805593537363413</v>
+        <v>0.802938457530119</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7920229745018</v>
+        <v>0.814656881102291</v>
       </c>
     </row>
     <row r="5">
@@ -950,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.804932412164655</v>
+        <v>0.796369775523808</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7920229745018</v>
+        <v>0.814656881102291</v>
       </c>
     </row>
     <row r="6">
@@ -976,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.80726286843593</v>
+        <v>0.845291203565099</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7920229745018</v>
+        <v>0.814656881102291</v>
       </c>
     </row>
     <row r="7">
@@ -987,10 +1011,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1002,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.832309323953769</v>
+        <v>0.755860233197192</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7920229745018</v>
+        <v>0.775554114689794</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1028,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.755860233197192</v>
+        <v>0.771240582395146</v>
       </c>
       <c r="H8" t="n">
         <v>0.775554114689794</v>
@@ -1039,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -1054,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.771240582395146</v>
+        <v>0.701804113717416</v>
       </c>
       <c r="H9" t="n">
         <v>0.775554114689794</v>
@@ -1065,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1080,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.701804113717416</v>
+        <v>0.865809537142588</v>
       </c>
       <c r="H10" t="n">
         <v>0.775554114689794</v>
@@ -1091,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1106,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.865809537142588</v>
+        <v>0.853031899279767</v>
       </c>
       <c r="H11" t="n">
         <v>0.775554114689794</v>
@@ -1117,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1132,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.853031899279767</v>
+        <v>0.668783381556858</v>
       </c>
       <c r="H12" t="n">
         <v>0.775554114689794</v>
@@ -1143,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1158,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.668783381556858</v>
+        <v>0.750675156521368</v>
       </c>
       <c r="H13" t="n">
         <v>0.775554114689794</v>
@@ -1169,10 +1193,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1184,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.750675156521368</v>
+        <v>0.689369598698994</v>
       </c>
       <c r="H14" t="n">
-        <v>0.775554114689794</v>
+        <v>0.756906307049712</v>
       </c>
     </row>
     <row r="15">
@@ -1195,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1210,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.689369598698994</v>
+        <v>0.678120303657764</v>
       </c>
       <c r="H15" t="n">
         <v>0.756906307049712</v>
@@ -1221,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -1236,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.678120303657764</v>
+        <v>0.768001571023388</v>
       </c>
       <c r="H16" t="n">
         <v>0.756906307049712</v>
@@ -1247,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1262,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.768001571023388</v>
+        <v>0.80926447636326</v>
       </c>
       <c r="H17" t="n">
         <v>0.756906307049712</v>
@@ -1273,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -1288,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.80926447636326</v>
+        <v>0.756005073348738</v>
       </c>
       <c r="H18" t="n">
         <v>0.756906307049712</v>
@@ -1299,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -1314,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.756005073348738</v>
+        <v>0.803659031713102</v>
       </c>
       <c r="H19" t="n">
         <v>0.756906307049712</v>
@@ -1325,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1340,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.803659031713102</v>
+        <v>0.901910844704146</v>
       </c>
       <c r="H20" t="n">
-        <v>0.756906307049712</v>
+        <v>0.715914307967765</v>
       </c>
     </row>
     <row r="21">
@@ -1351,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -1366,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.901910844704146</v>
+        <v>0.901628420753458</v>
       </c>
       <c r="H21" t="n">
         <v>0.715914307967765</v>
@@ -1377,7 +1401,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -1392,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.901628420753458</v>
+        <v>0.649188870730167</v>
       </c>
       <c r="H22" t="n">
         <v>0.715914307967765</v>
@@ -1403,7 +1427,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -1418,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.649188870730167</v>
+        <v>0.65455000936607</v>
       </c>
       <c r="H23" t="n">
         <v>0.715914307967765</v>
@@ -1429,10 +1453,10 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1444,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.65455000936607</v>
+        <v>0.639370163411834</v>
       </c>
       <c r="H24" t="n">
-        <v>0.715914307967765</v>
+        <v>0.630855050658263</v>
       </c>
     </row>
     <row r="25">
@@ -1455,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -1470,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.639370163411834</v>
+        <v>0.594910827954929</v>
       </c>
       <c r="H25" t="n">
         <v>0.630855050658263</v>
@@ -1481,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
@@ -1496,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.594910827954929</v>
+        <v>0.650376106654063</v>
       </c>
       <c r="H26" t="n">
         <v>0.630855050658263</v>
@@ -1507,7 +1531,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -1519,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.650376106654063</v>
+        <v>0.732431931555277</v>
       </c>
       <c r="H27" t="n">
         <v>0.630855050658263</v>
@@ -1533,10 +1557,10 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -1545,13 +1569,13 @@
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.732431931555277</v>
+        <v>0.841582452725322</v>
       </c>
       <c r="H28" t="n">
-        <v>0.630855050658263</v>
+        <v>0.839335421361321</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -1574,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.841582452725322</v>
+        <v>0.856200655577157</v>
       </c>
       <c r="H29" t="n">
         <v>0.839335421361321</v>
@@ -1585,7 +1609,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
@@ -1600,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.856200655577157</v>
+        <v>0.795621885581475</v>
       </c>
       <c r="H30" t="n">
         <v>0.839335421361321</v>
@@ -1611,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -1626,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.795621885581475</v>
+        <v>0.848057963656392</v>
       </c>
       <c r="H31" t="n">
         <v>0.839335421361321</v>
@@ -1637,7 +1661,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -1652,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.848057963656392</v>
+        <v>0.868529818214685</v>
       </c>
       <c r="H32" t="n">
         <v>0.839335421361321</v>
@@ -1660,13 +1684,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -1678,18 +1702,18 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.868529818214685</v>
+        <v>0.864686135820733</v>
       </c>
       <c r="H33" t="n">
-        <v>0.839335421361321</v>
+        <v>0.877191910272863</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
         <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -1704,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.864686135820733</v>
+        <v>0.865348658617825</v>
       </c>
       <c r="H34" t="n">
         <v>0.877191910272863</v>
@@ -1712,10 +1736,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
         <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -1730,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.865348658617825</v>
+        <v>0.876492620915227</v>
       </c>
       <c r="H35" t="n">
         <v>0.877191910272863</v>
@@ -1738,10 +1762,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -1756,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.876492620915227</v>
+        <v>0.873108519950439</v>
       </c>
       <c r="H36" t="n">
         <v>0.877191910272863</v>
@@ -1764,10 +1788,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
         <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
@@ -1782,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.873108519950439</v>
+        <v>0.888882426582752</v>
       </c>
       <c r="H37" t="n">
         <v>0.877191910272863</v>
@@ -1790,10 +1814,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
         <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -1808,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.888882426582752</v>
+        <v>0.872818127233965</v>
       </c>
       <c r="H38" t="n">
         <v>0.877191910272863</v>
@@ -1816,10 +1840,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
         <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -1834,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0.872818127233965</v>
+        <v>0.904072677366653</v>
       </c>
       <c r="H39" t="n">
         <v>0.877191910272863</v>
@@ -1842,13 +1866,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -1860,18 +1884,18 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0.904072677366653</v>
+        <v>0.849171181752243</v>
       </c>
       <c r="H40" t="n">
-        <v>0.877191910272863</v>
+        <v>0.870844143224662</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
@@ -1886,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.849171181752243</v>
+        <v>0.842796680836099</v>
       </c>
       <c r="H41" t="n">
         <v>0.870844143224662</v>
@@ -1894,10 +1918,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>58</v>
@@ -1912,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0.842796680836099</v>
+        <v>0.899992367948784</v>
       </c>
       <c r="H42" t="n">
         <v>0.870844143224662</v>
@@ -1920,10 +1944,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
@@ -1938,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.899992367948784</v>
+        <v>0.883458965851128</v>
       </c>
       <c r="H43" t="n">
         <v>0.870844143224662</v>
@@ -1946,10 +1970,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
@@ -1964,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.883458965851128</v>
+        <v>0.893850236530556</v>
       </c>
       <c r="H44" t="n">
         <v>0.870844143224662</v>
@@ -1972,13 +1996,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -1990,18 +2014,18 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.893850236530556</v>
+        <v>0.845981243640625</v>
       </c>
       <c r="H45" t="n">
-        <v>0.870844143224662</v>
+        <v>0.830807553684967</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -2016,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0.845981243640625</v>
+        <v>0.778675026778672</v>
       </c>
       <c r="H46" t="n">
         <v>0.830807553684967</v>
@@ -2024,10 +2048,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
         <v>64</v>
@@ -2042,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.778675026778672</v>
+        <v>0.914555948170328</v>
       </c>
       <c r="H47" t="n">
         <v>0.830807553684967</v>
@@ -2050,10 +2074,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
@@ -2068,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.914555948170328</v>
+        <v>0.835435944652119</v>
       </c>
       <c r="H48" t="n">
         <v>0.830807553684967</v>
@@ -2076,10 +2100,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
@@ -2094,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.835435944652119</v>
+        <v>0.775975929230111</v>
       </c>
       <c r="H49" t="n">
         <v>0.830807553684967</v>
@@ -2102,10 +2126,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -2120,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.775975929230111</v>
+        <v>0.893920105040748</v>
       </c>
       <c r="H50" t="n">
         <v>0.830807553684967</v>
@@ -2128,13 +2152,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -2146,18 +2170,18 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0.893920105040748</v>
+        <v>0.751776045609344</v>
       </c>
       <c r="H51" t="n">
-        <v>0.830807553684967</v>
+        <v>0.651483032198397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
         <v>70</v>
@@ -2172,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0.751776045609344</v>
+        <v>0.636340489567604</v>
       </c>
       <c r="H52" t="n">
         <v>0.651483032198397</v>
@@ -2180,10 +2204,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
         <v>71</v>
@@ -2198,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0.636340489567604</v>
+        <v>0.610233665318827</v>
       </c>
       <c r="H53" t="n">
         <v>0.651483032198397</v>
@@ -2206,10 +2230,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
         <v>72</v>
@@ -2221,10 +2245,10 @@
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.610233665318827</v>
+        <v>0.713999579010071</v>
       </c>
       <c r="H54" t="n">
         <v>0.651483032198397</v>
@@ -2232,13 +2256,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -2247,21 +2271,21 @@
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0.713999579010071</v>
+        <v>0.636750610013376</v>
       </c>
       <c r="H55" t="n">
-        <v>0.651483032198397</v>
+        <v>0.627985207478008</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
         <v>75</v>
@@ -2276,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>0.636750610013376</v>
+        <v>0.591240399549881</v>
       </c>
       <c r="H56" t="n">
         <v>0.627985207478008</v>
@@ -2284,10 +2308,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
@@ -2302,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.591240399549881</v>
+        <v>0.626494814001026</v>
       </c>
       <c r="H57" t="n">
         <v>0.627985207478008</v>
@@ -2310,10 +2334,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>77</v>
@@ -2328,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.626494814001026</v>
+        <v>0.645293587808759</v>
       </c>
       <c r="H58" t="n">
         <v>0.627985207478008</v>
@@ -2336,13 +2360,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -2354,21 +2378,21 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0.645293587808759</v>
+        <v>0.795476236409173</v>
       </c>
       <c r="H59" t="n">
-        <v>0.627985207478008</v>
+        <v>0.767934994714087</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -2380,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.795476236409173</v>
+        <v>0.745520669267478</v>
       </c>
       <c r="H60" t="n">
         <v>0.767934994714087</v>
@@ -2388,14 +2412,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
         <v>79</v>
       </c>
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
@@ -2406,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0.745520669267478</v>
+        <v>0.766615787431271</v>
       </c>
       <c r="H61" t="n">
         <v>0.767934994714087</v>
@@ -2414,10 +2438,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
         <v>80</v>
@@ -2432,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.766615787431271</v>
+        <v>0.774813928015432</v>
       </c>
       <c r="H62" t="n">
         <v>0.767934994714087</v>
@@ -2440,13 +2464,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -2458,21 +2482,21 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.774813928015432</v>
+        <v>0.75385639847382</v>
       </c>
       <c r="H63" t="n">
-        <v>0.767934994714087</v>
+        <v>0.819544836726484</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -2484,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.75385639847382</v>
+        <v>0.804762887918868</v>
       </c>
       <c r="H64" t="n">
         <v>0.819544836726484</v>
@@ -2492,13 +2516,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2510,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.804762887918868</v>
+        <v>0.878164711622094</v>
       </c>
       <c r="H65" t="n">
         <v>0.819544836726484</v>
@@ -2518,10 +2542,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -2536,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0.878164711622094</v>
+        <v>0.819498806706679</v>
       </c>
       <c r="H66" t="n">
         <v>0.819544836726484</v>
@@ -2544,13 +2568,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -2562,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.819498806706679</v>
+        <v>0.846571101086402</v>
       </c>
       <c r="H67" t="n">
         <v>0.819544836726484</v>
@@ -2570,13 +2594,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -2588,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.846571101086402</v>
+        <v>0.788240532745165</v>
       </c>
       <c r="H68" t="n">
         <v>0.819544836726484</v>
@@ -2596,13 +2620,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -2614,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0.788240532745165</v>
+        <v>0.868263319080013</v>
       </c>
       <c r="H69" t="n">
         <v>0.819544836726484</v>
@@ -2622,13 +2646,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -2640,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.868263319080013</v>
+        <v>0.76312808498158</v>
       </c>
       <c r="H70" t="n">
-        <v>0.819544836726484</v>
+        <v>0.773887105645654</v>
       </c>
     </row>
     <row r="71">
@@ -2651,10 +2675,10 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -2666,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.76312808498158</v>
+        <v>0.73681706692615</v>
       </c>
       <c r="H71" t="n">
         <v>0.773887105645654</v>
@@ -2677,10 +2701,10 @@
         <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -2692,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0.73681706692615</v>
+        <v>0.854865159260893</v>
       </c>
       <c r="H72" t="n">
         <v>0.773887105645654</v>
@@ -2703,10 +2727,10 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -2718,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0.854865159260893</v>
+        <v>0.772376848560246</v>
       </c>
       <c r="H73" t="n">
         <v>0.773887105645654</v>
@@ -2729,10 +2753,10 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -2744,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.772376848560246</v>
+        <v>0.756499269524565</v>
       </c>
       <c r="H74" t="n">
         <v>0.773887105645654</v>
@@ -2755,10 +2779,10 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -2770,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0.756499269524565</v>
+        <v>0.86807235086131</v>
       </c>
       <c r="H75" t="n">
-        <v>0.773887105645654</v>
+        <v>0.777585947919062</v>
       </c>
     </row>
     <row r="76">
@@ -2796,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.86807235086131</v>
+        <v>0.80006614259876</v>
       </c>
       <c r="H76" t="n">
         <v>0.777585947919062</v>
@@ -2822,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.80006614259876</v>
+        <v>0.837998111906668</v>
       </c>
       <c r="H77" t="n">
         <v>0.777585947919062</v>
@@ -2848,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.837998111906668</v>
+        <v>0.743029448101979</v>
       </c>
       <c r="H78" t="n">
         <v>0.777585947919062</v>
@@ -2874,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.743029448101979</v>
+        <v>0.668913008408143</v>
       </c>
       <c r="H79" t="n">
         <v>0.777585947919062</v>
@@ -2900,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.668913008408143</v>
+        <v>0.759436100572032</v>
       </c>
       <c r="H80" t="n">
         <v>0.777585947919062</v>
@@ -2911,13 +2935,13 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -2926,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.759436100572032</v>
+        <v>0.730891554465246</v>
       </c>
       <c r="H81" t="n">
-        <v>0.777585947919062</v>
+        <v>0.60092705181452</v>
       </c>
     </row>
     <row r="82">
@@ -2952,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0.730891554465246</v>
+        <v>0.641493825265899</v>
       </c>
       <c r="H82" t="n">
         <v>0.60092705181452</v>
@@ -2978,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0.641493825265899</v>
+        <v>0.515335351700395</v>
       </c>
       <c r="H83" t="n">
         <v>0.60092705181452</v>
@@ -3004,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.515335351700395</v>
+        <v>0.548839275892498</v>
       </c>
       <c r="H84" t="n">
         <v>0.60092705181452</v>
@@ -3027,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.548839275892498</v>
+        <v>0.569857468285394</v>
       </c>
       <c r="H85" t="n">
         <v>0.60092705181452</v>
@@ -3053,10 +3077,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.569857468285394</v>
+        <v>0.660853731444463</v>
       </c>
       <c r="H86" t="n">
         <v>0.60092705181452</v>
@@ -3082,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0.660853731444463</v>
+        <v>0.632725685813515</v>
       </c>
       <c r="H87" t="n">
         <v>0.60092705181452</v>
@@ -3096,7 +3120,7 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -3108,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0.632725685813515</v>
+        <v>0.569206955314767</v>
       </c>
       <c r="H88" t="n">
         <v>0.60092705181452</v>
@@ -3119,13 +3143,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -3134,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.569206955314767</v>
+        <v>0.724794987061822</v>
       </c>
       <c r="H89" t="n">
-        <v>0.60092705181452</v>
+        <v>0.868599259944792</v>
       </c>
     </row>
     <row r="90">
@@ -3160,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0.724794987061822</v>
+        <v>0.802745878184619</v>
       </c>
       <c r="H90" t="n">
         <v>0.868599259944792</v>
@@ -3186,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0.802745878184619</v>
+        <v>0.859415930012906</v>
       </c>
       <c r="H91" t="n">
         <v>0.868599259944792</v>
@@ -3212,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0.859415930012906</v>
+        <v>0.863847543150159</v>
       </c>
       <c r="H92" t="n">
         <v>0.868599259944792</v>
@@ -3238,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0.863847543150159</v>
+        <v>0.964491760870649</v>
       </c>
       <c r="H93" t="n">
         <v>0.868599259944792</v>
@@ -3264,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0.964491760870649</v>
+        <v>0.845708734286932</v>
       </c>
       <c r="H94" t="n">
         <v>0.868599259944792</v>
@@ -3278,7 +3302,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -3290,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0.845708734286932</v>
+        <v>0.92679886489811</v>
       </c>
       <c r="H95" t="n">
         <v>0.868599259944792</v>
@@ -3304,7 +3328,7 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
@@ -3316,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.92679886489811</v>
+        <v>0.858683417014405</v>
       </c>
       <c r="H96" t="n">
         <v>0.868599259944792</v>
@@ -3330,7 +3354,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -3342,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0.858683417014405</v>
+        <v>0.914701328234108</v>
       </c>
       <c r="H97" t="n">
         <v>0.868599259944792</v>
@@ -3356,7 +3380,7 @@
         <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
@@ -3368,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0.914701328234108</v>
+        <v>0.842169835459721</v>
       </c>
       <c r="H98" t="n">
         <v>0.868599259944792</v>
@@ -3382,7 +3406,7 @@
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
@@ -3394,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.842169835459721</v>
+        <v>0.872692009417336</v>
       </c>
       <c r="H99" t="n">
         <v>0.868599259944792</v>
@@ -3408,7 +3432,7 @@
         <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3420,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0.872692009417336</v>
+        <v>0.940524858702877</v>
       </c>
       <c r="H100" t="n">
         <v>0.868599259944792</v>
@@ -3431,10 +3455,10 @@
         <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -3446,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.940524858702877</v>
+        <v>0.886105773103004</v>
       </c>
       <c r="H101" t="n">
-        <v>0.868599259944792</v>
+        <v>0.859353323887208</v>
       </c>
     </row>
     <row r="102">
@@ -3460,7 +3484,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -3472,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0.886105773103004</v>
+        <v>0.923523142348247</v>
       </c>
       <c r="H102" t="n">
         <v>0.859353323887208</v>
@@ -3486,7 +3510,7 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -3498,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>0.923523142348247</v>
+        <v>0.801855178379938</v>
       </c>
       <c r="H103" t="n">
         <v>0.859353323887208</v>
@@ -3524,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0.801855178379938</v>
+        <v>0.798081238262209</v>
       </c>
       <c r="H104" t="n">
         <v>0.859353323887208</v>
@@ -3550,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0.798081238262209</v>
+        <v>0.791348535852426</v>
       </c>
       <c r="H105" t="n">
         <v>0.859353323887208</v>
@@ -3564,7 +3588,7 @@
         <v>102</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -3576,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0.791348535852426</v>
+        <v>0.806394801601684</v>
       </c>
       <c r="H106" t="n">
         <v>0.859353323887208</v>
@@ -3602,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.806394801601684</v>
+        <v>0.895627778989184</v>
       </c>
       <c r="H107" t="n">
         <v>0.859353323887208</v>
@@ -3628,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.895627778989184</v>
+        <v>0.812062479145328</v>
       </c>
       <c r="H108" t="n">
         <v>0.859353323887208</v>
@@ -3642,7 +3666,7 @@
         <v>102</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3654,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.812062479145328</v>
+        <v>0.787609743381133</v>
       </c>
       <c r="H109" t="n">
         <v>0.859353323887208</v>
@@ -3668,7 +3692,7 @@
         <v>102</v>
       </c>
       <c r="C110" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -3680,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.787609743381133</v>
+        <v>0.856496974823866</v>
       </c>
       <c r="H110" t="n">
         <v>0.859353323887208</v>
@@ -3694,7 +3718,7 @@
         <v>102</v>
       </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -3706,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0.856496974823866</v>
+        <v>0.924263417445423</v>
       </c>
       <c r="H111" t="n">
         <v>0.859353323887208</v>
@@ -3720,7 +3744,7 @@
         <v>102</v>
       </c>
       <c r="C112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -3732,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0.924263417445423</v>
+        <v>0.944072174118612</v>
       </c>
       <c r="H112" t="n">
         <v>0.859353323887208</v>
@@ -3746,7 +3770,7 @@
         <v>102</v>
       </c>
       <c r="C113" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -3758,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.944072174118612</v>
+        <v>0.865570180203152</v>
       </c>
       <c r="H113" t="n">
         <v>0.859353323887208</v>
@@ -3772,7 +3796,7 @@
         <v>102</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3784,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.865570180203152</v>
+        <v>0.951936925907157</v>
       </c>
       <c r="H114" t="n">
         <v>0.859353323887208</v>
@@ -3795,10 +3819,10 @@
         <v>86</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C115" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -3810,10 +3834,10 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0.951936925907157</v>
+        <v>0.8663189044064</v>
       </c>
       <c r="H115" t="n">
-        <v>0.859353323887208</v>
+        <v>0.840954886455481</v>
       </c>
     </row>
     <row r="116">
@@ -3836,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>0.8663189044064</v>
+        <v>0.795210761414204</v>
       </c>
       <c r="H116" t="n">
         <v>0.840954886455481</v>
@@ -3862,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.795210761414204</v>
+        <v>0.789952012079001</v>
       </c>
       <c r="H117" t="n">
         <v>0.840954886455481</v>
@@ -3888,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>0.789952012079001</v>
+        <v>0.905290693440407</v>
       </c>
       <c r="H118" t="n">
         <v>0.840954886455481</v>
@@ -3914,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0.905290693440407</v>
+        <v>0.863573814854838</v>
       </c>
       <c r="H119" t="n">
         <v>0.840954886455481</v>
@@ -3928,7 +3952,7 @@
         <v>109</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -3940,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.863573814854838</v>
+        <v>0.773220288454141</v>
       </c>
       <c r="H120" t="n">
         <v>0.840954886455481</v>
@@ -3954,7 +3978,7 @@
         <v>109</v>
       </c>
       <c r="C121" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
@@ -3966,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.773220288454141</v>
+        <v>0.832702057958974</v>
       </c>
       <c r="H121" t="n">
         <v>0.840954886455481</v>
@@ -3980,7 +4004,7 @@
         <v>109</v>
       </c>
       <c r="C122" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -3992,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.832702057958974</v>
+        <v>0.886993859418305</v>
       </c>
       <c r="H122" t="n">
         <v>0.840954886455481</v>
@@ -4006,7 +4030,7 @@
         <v>109</v>
       </c>
       <c r="C123" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -4018,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>0.886993859418305</v>
+        <v>0.887810053533381</v>
       </c>
       <c r="H123" t="n">
         <v>0.840954886455481</v>
@@ -4026,13 +4050,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C124" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -4044,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>0.887810053533381</v>
+        <v>0.882088021351245</v>
       </c>
       <c r="H124" t="n">
-        <v>0.840954886455481</v>
+        <v>0.827828947574631</v>
       </c>
     </row>
     <row r="125">
@@ -4070,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0.882088021351245</v>
+        <v>0.828929257488954</v>
       </c>
       <c r="H125" t="n">
         <v>0.827828947574631</v>
@@ -4096,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.828929257488954</v>
+        <v>0.895025069887796</v>
       </c>
       <c r="H126" t="n">
         <v>0.827828947574631</v>
@@ -4122,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0.895025069887796</v>
+        <v>0.807583430633351</v>
       </c>
       <c r="H127" t="n">
         <v>0.827828947574631</v>
@@ -4148,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0.807583430633351</v>
+        <v>0.792754805604068</v>
       </c>
       <c r="H128" t="n">
         <v>0.827828947574631</v>
@@ -4156,13 +4180,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
@@ -4174,10 +4198,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.792754805604068</v>
+        <v>0.9072184639215</v>
       </c>
       <c r="H129" t="n">
-        <v>0.827828947574631</v>
+        <v>0.891448435491525</v>
       </c>
     </row>
     <row r="130">
@@ -4188,7 +4212,7 @@
         <v>117</v>
       </c>
       <c r="C130" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
@@ -4200,10 +4224,10 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.891569055782161</v>
+        <v>0.892934681766456</v>
       </c>
       <c r="H130" t="n">
-        <v>0.86198246215949</v>
+        <v>0.891448435491525</v>
       </c>
     </row>
     <row r="131">
@@ -4214,7 +4238,7 @@
         <v>117</v>
       </c>
       <c r="C131" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -4226,10 +4250,10 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0.912596422956752</v>
+        <v>0.890576480545949</v>
       </c>
       <c r="H131" t="n">
-        <v>0.86198246215949</v>
+        <v>0.891448435491525</v>
       </c>
     </row>
     <row r="132">
@@ -4240,7 +4264,7 @@
         <v>117</v>
       </c>
       <c r="C132" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -4252,10 +4276,10 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>0.798090376131478</v>
+        <v>0.899741800829743</v>
       </c>
       <c r="H132" t="n">
-        <v>0.86198246215949</v>
+        <v>0.891448435491525</v>
       </c>
     </row>
     <row r="133">
@@ -4266,7 +4290,7 @@
         <v>117</v>
       </c>
       <c r="C133" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -4278,10 +4302,10 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0.860174985623231</v>
+        <v>0.887745590265828</v>
       </c>
       <c r="H133" t="n">
-        <v>0.86198246215949</v>
+        <v>0.891448435491525</v>
       </c>
     </row>
     <row r="134">
@@ -4292,7 +4316,7 @@
         <v>117</v>
       </c>
       <c r="C134" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -4304,10 +4328,10 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>0.851511875288519</v>
+        <v>0.867519359851895</v>
       </c>
       <c r="H134" t="n">
-        <v>0.86198246215949</v>
+        <v>0.891448435491525</v>
       </c>
     </row>
     <row r="135">
@@ -4318,7 +4342,7 @@
         <v>117</v>
       </c>
       <c r="C135" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
@@ -4330,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0.835781099835487</v>
+        <v>0.900465262374789</v>
       </c>
       <c r="H135" t="n">
-        <v>0.86198246215949</v>
+        <v>0.891448435491525</v>
       </c>
     </row>
     <row r="136">
@@ -4341,10 +4365,10 @@
         <v>116</v>
       </c>
       <c r="B136" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C136" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
@@ -4356,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.908897906739703</v>
+        <v>0.891569055782161</v>
       </c>
       <c r="H136" t="n">
         <v>0.86198246215949</v>
@@ -4367,10 +4391,10 @@
         <v>116</v>
       </c>
       <c r="B137" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -4382,10 +4406,10 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.842236184974088</v>
+        <v>0.912596422956752</v>
       </c>
       <c r="H137" t="n">
-        <v>0.855873234305033</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="138">
@@ -4393,10 +4417,10 @@
         <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C138" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -4408,10 +4432,10 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>0.845662969242495</v>
+        <v>0.798090376131478</v>
       </c>
       <c r="H138" t="n">
-        <v>0.855873234305033</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="139">
@@ -4419,10 +4443,10 @@
         <v>116</v>
       </c>
       <c r="B139" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C139" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -4434,10 +4458,10 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>0.901114482990253</v>
+        <v>0.860174985623231</v>
       </c>
       <c r="H139" t="n">
-        <v>0.855873234305033</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="140">
@@ -4445,10 +4469,10 @@
         <v>116</v>
       </c>
       <c r="B140" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C140" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
@@ -4460,10 +4484,10 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>0.882752899959062</v>
+        <v>0.851511875288519</v>
       </c>
       <c r="H140" t="n">
-        <v>0.855873234305033</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="141">
@@ -4471,10 +4495,10 @@
         <v>116</v>
       </c>
       <c r="B141" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C141" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -4486,10 +4510,10 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>0.876611502710582</v>
+        <v>0.835781099835487</v>
       </c>
       <c r="H141" t="n">
-        <v>0.855873234305033</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="142">
@@ -4497,10 +4521,10 @@
         <v>116</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C142" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -4512,10 +4536,10 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>0.81385437235178</v>
+        <v>0.908897906739703</v>
       </c>
       <c r="H142" t="n">
-        <v>0.855873234305033</v>
+        <v>0.86198246215949</v>
       </c>
     </row>
     <row r="143">
@@ -4523,10 +4547,10 @@
         <v>116</v>
       </c>
       <c r="B143" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C143" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -4538,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0.803660537921549</v>
+        <v>0.842236184974088</v>
       </c>
       <c r="H143" t="n">
         <v>0.855873234305033</v>
@@ -4549,10 +4573,10 @@
         <v>116</v>
       </c>
       <c r="B144" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C144" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -4564,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0.923562387895371</v>
+        <v>0.845662969242495</v>
       </c>
       <c r="H144" t="n">
         <v>0.855873234305033</v>
@@ -4575,10 +4599,10 @@
         <v>116</v>
       </c>
       <c r="B145" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C145" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -4587,10 +4611,10 @@
         <v>1</v>
       </c>
       <c r="F145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0.90808170461343</v>
+        <v>0.901114482990253</v>
       </c>
       <c r="H145" t="n">
         <v>0.855873234305033</v>
@@ -4601,10 +4625,10 @@
         <v>116</v>
       </c>
       <c r="B146" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C146" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -4616,10 +4640,10 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>0.888230969948374</v>
+        <v>0.882752899959062</v>
       </c>
       <c r="H146" t="n">
-        <v>0.892473267007893</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="147">
@@ -4627,10 +4651,10 @@
         <v>116</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C147" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
@@ -4642,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>0.881762263426298</v>
+        <v>0.876611502710582</v>
       </c>
       <c r="H147" t="n">
-        <v>0.892473267007893</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="148">
@@ -4653,10 +4677,10 @@
         <v>116</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C148" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -4668,10 +4692,10 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>0.917136667571309</v>
+        <v>0.81385437235178</v>
       </c>
       <c r="H148" t="n">
-        <v>0.892473267007893</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="149">
@@ -4679,10 +4703,10 @@
         <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C149" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
@@ -4694,10 +4718,10 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0.90763407170061</v>
+        <v>0.803660537921549</v>
       </c>
       <c r="H149" t="n">
-        <v>0.892473267007893</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="150">
@@ -4705,10 +4729,10 @@
         <v>116</v>
       </c>
       <c r="B150" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
@@ -4720,10 +4744,10 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0.905302621756597</v>
+        <v>0.923562387895371</v>
       </c>
       <c r="H150" t="n">
-        <v>0.892473267007893</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="151">
@@ -4731,10 +4755,10 @@
         <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C151" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
@@ -4743,13 +4767,13 @@
         <v>1</v>
       </c>
       <c r="F151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.892327739763538</v>
+        <v>0.90808170461343</v>
       </c>
       <c r="H151" t="n">
-        <v>0.892473267007893</v>
+        <v>0.855873234305033</v>
       </c>
     </row>
     <row r="152">
@@ -4757,10 +4781,10 @@
         <v>116</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C152" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
@@ -4772,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>0.855550264447505</v>
+        <v>0.888230969948374</v>
       </c>
       <c r="H152" t="n">
         <v>0.892473267007893</v>
@@ -4783,10 +4807,10 @@
         <v>116</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C153" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
@@ -4798,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>0.893306639810434</v>
+        <v>0.881762263426298</v>
       </c>
       <c r="H153" t="n">
         <v>0.892473267007893</v>
@@ -4809,10 +4833,10 @@
         <v>116</v>
       </c>
       <c r="B154" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C154" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -4824,10 +4848,10 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0.867524960350192</v>
+        <v>0.917136667571309</v>
       </c>
       <c r="H154" t="n">
-        <v>0.876998909573429</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="155">
@@ -4835,10 +4859,10 @@
         <v>116</v>
       </c>
       <c r="B155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -4850,10 +4874,10 @@
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>0.870969133808976</v>
+        <v>0.90763407170061</v>
       </c>
       <c r="H155" t="n">
-        <v>0.876998909573429</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="156">
@@ -4861,10 +4885,10 @@
         <v>116</v>
       </c>
       <c r="B156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -4876,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0.877193719572266</v>
+        <v>0.905302621756597</v>
       </c>
       <c r="H156" t="n">
-        <v>0.876998909573429</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="157">
@@ -4887,10 +4911,10 @@
         <v>116</v>
       </c>
       <c r="B157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
@@ -4902,10 +4926,10 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>0.888780877586689</v>
+        <v>0.892327739763538</v>
       </c>
       <c r="H157" t="n">
-        <v>0.876998909573429</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="158">
@@ -4913,10 +4937,10 @@
         <v>116</v>
       </c>
       <c r="B158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C158" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -4928,10 +4952,10 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>0.882177061124515</v>
+        <v>0.855550264447505</v>
       </c>
       <c r="H158" t="n">
-        <v>0.876998909573429</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="159">
@@ -4939,10 +4963,10 @@
         <v>116</v>
       </c>
       <c r="B159" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C159" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
@@ -4951,13 +4975,13 @@
         <v>1</v>
       </c>
       <c r="F159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>0.886974250340561</v>
+        <v>0.893306639810434</v>
       </c>
       <c r="H159" t="n">
-        <v>0.804178133265818</v>
+        <v>0.892473267007893</v>
       </c>
     </row>
     <row r="160">
@@ -4965,10 +4989,10 @@
         <v>116</v>
       </c>
       <c r="B160" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C160" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -4980,10 +5004,10 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>0.779779540338042</v>
+        <v>0.867524960350192</v>
       </c>
       <c r="H160" t="n">
-        <v>0.804178133265818</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="161">
@@ -4991,10 +5015,10 @@
         <v>116</v>
       </c>
       <c r="B161" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C161" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D161" t="b">
         <v>1</v>
@@ -5006,10 +5030,10 @@
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>0.835139059982367</v>
+        <v>0.870969133808976</v>
       </c>
       <c r="H161" t="n">
-        <v>0.804178133265818</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="162">
@@ -5017,10 +5041,10 @@
         <v>116</v>
       </c>
       <c r="B162" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C162" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
@@ -5032,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>0.752271084237914</v>
+        <v>0.877193719572266</v>
       </c>
       <c r="H162" t="n">
-        <v>0.804178133265818</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="163">
@@ -5043,10 +5067,10 @@
         <v>116</v>
       </c>
       <c r="B163" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C163" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -5058,10 +5082,10 @@
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>0.856355258080002</v>
+        <v>0.888780877586689</v>
       </c>
       <c r="H163" t="n">
-        <v>0.804178133265818</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="164">
@@ -5069,10 +5093,10 @@
         <v>116</v>
       </c>
       <c r="B164" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C164" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -5084,10 +5108,10 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>0.950048768372738</v>
+        <v>0.882177061124515</v>
       </c>
       <c r="H164" t="n">
-        <v>0.934747993005398</v>
+        <v>0.876998909573429</v>
       </c>
     </row>
     <row r="165">
@@ -5095,10 +5119,10 @@
         <v>116</v>
       </c>
       <c r="B165" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C165" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
@@ -5107,13 +5131,13 @@
         <v>1</v>
       </c>
       <c r="F165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.901597606477408</v>
+        <v>0.886974250340561</v>
       </c>
       <c r="H165" t="n">
-        <v>0.934747993005398</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="166">
@@ -5121,10 +5145,10 @@
         <v>116</v>
       </c>
       <c r="B166" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C166" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -5136,10 +5160,10 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>0.918455411556516</v>
+        <v>0.779779540338042</v>
       </c>
       <c r="H166" t="n">
-        <v>0.934747993005398</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="167">
@@ -5147,10 +5171,10 @@
         <v>116</v>
       </c>
       <c r="B167" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C167" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -5162,10 +5186,10 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0.96401443103568</v>
+        <v>0.835139059982367</v>
       </c>
       <c r="H167" t="n">
-        <v>0.934747993005398</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="168">
@@ -5173,10 +5197,10 @@
         <v>116</v>
       </c>
       <c r="B168" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C168" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
@@ -5188,10 +5212,10 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>0.939322481725711</v>
+        <v>0.752271084237914</v>
       </c>
       <c r="H168" t="n">
-        <v>0.934747993005398</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="169">
@@ -5199,10 +5223,10 @@
         <v>116</v>
       </c>
       <c r="B169" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C169" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -5214,10 +5238,10 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0.942094341726136</v>
+        <v>0.856355258080002</v>
       </c>
       <c r="H169" t="n">
-        <v>0.934747993005398</v>
+        <v>0.804178133265818</v>
       </c>
     </row>
     <row r="170">
@@ -5225,10 +5249,10 @@
         <v>116</v>
       </c>
       <c r="B170" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -5240,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>0.960557269386782</v>
+        <v>0.950048768372738</v>
       </c>
       <c r="H170" t="n">
         <v>0.934747993005398</v>
@@ -5251,10 +5275,10 @@
         <v>116</v>
       </c>
       <c r="B171" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C171" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -5266,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>0.947482150944539</v>
+        <v>0.901597606477408</v>
       </c>
       <c r="H171" t="n">
         <v>0.934747993005398</v>
@@ -5277,10 +5301,10 @@
         <v>116</v>
       </c>
       <c r="B172" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -5292,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0.949824924414919</v>
+        <v>0.918455411556516</v>
       </c>
       <c r="H172" t="n">
         <v>0.934747993005398</v>
@@ -5303,10 +5327,10 @@
         <v>116</v>
       </c>
       <c r="B173" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
@@ -5318,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>0.913501873733887</v>
+        <v>0.96401443103568</v>
       </c>
       <c r="H173" t="n">
         <v>0.934747993005398</v>
@@ -5329,10 +5353,10 @@
         <v>116</v>
       </c>
       <c r="B174" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -5344,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>0.917584336976634</v>
+        <v>0.939322481725711</v>
       </c>
       <c r="H174" t="n">
         <v>0.934747993005398</v>
@@ -5355,10 +5379,10 @@
         <v>116</v>
       </c>
       <c r="B175" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C175" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -5370,10 +5394,10 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0.943103140627284</v>
+        <v>0.942094341726136</v>
       </c>
       <c r="H175" t="n">
-        <v>0.950852631608764</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="176">
@@ -5381,10 +5405,10 @@
         <v>116</v>
       </c>
       <c r="B176" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -5396,10 +5420,10 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>0.938418812080215</v>
+        <v>0.960557269386782</v>
       </c>
       <c r="H176" t="n">
-        <v>0.950852631608764</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="177">
@@ -5407,10 +5431,10 @@
         <v>116</v>
       </c>
       <c r="B177" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C177" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
@@ -5422,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>0.963595899627589</v>
+        <v>0.947482150944539</v>
       </c>
       <c r="H177" t="n">
-        <v>0.950852631608764</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="178">
@@ -5433,10 +5457,10 @@
         <v>116</v>
       </c>
       <c r="B178" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C178" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D178" t="b">
         <v>1</v>
@@ -5448,10 +5472,10 @@
         <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>0.972841535307988</v>
+        <v>0.949824924414919</v>
       </c>
       <c r="H178" t="n">
-        <v>0.950852631608764</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="179">
@@ -5459,10 +5483,10 @@
         <v>116</v>
       </c>
       <c r="B179" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C179" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -5474,10 +5498,10 @@
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>0.966598092234203</v>
+        <v>0.913501873733887</v>
       </c>
       <c r="H179" t="n">
-        <v>0.950852631608764</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="180">
@@ -5485,10 +5509,10 @@
         <v>116</v>
       </c>
       <c r="B180" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C180" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -5500,10 +5524,10 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>0.963207897208435</v>
+        <v>0.917584336976634</v>
       </c>
       <c r="H180" t="n">
-        <v>0.950852631608764</v>
+        <v>0.934747993005398</v>
       </c>
     </row>
     <row r="181">
@@ -5511,10 +5535,10 @@
         <v>116</v>
       </c>
       <c r="B181" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C181" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
@@ -5526,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>0.933050195908045</v>
+        <v>0.943103140627284</v>
       </c>
       <c r="H181" t="n">
         <v>0.950852631608764</v>
@@ -5537,10 +5561,10 @@
         <v>116</v>
       </c>
       <c r="B182" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C182" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -5552,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>0.96703885977009</v>
+        <v>0.938418812080215</v>
       </c>
       <c r="H182" t="n">
         <v>0.950852631608764</v>
@@ -5563,10 +5587,10 @@
         <v>116</v>
       </c>
       <c r="B183" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C183" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
@@ -5578,9 +5602,165 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
+        <v>0.963595899627589</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.950852631608764</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>116</v>
+      </c>
+      <c r="B184" t="s">
+        <v>159</v>
+      </c>
+      <c r="C184" t="s">
+        <v>163</v>
+      </c>
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" t="b">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.972841535307988</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.950852631608764</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>116</v>
+      </c>
+      <c r="B185" t="s">
+        <v>159</v>
+      </c>
+      <c r="C185" t="s">
+        <v>164</v>
+      </c>
+      <c r="D185" t="b">
+        <v>1</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" t="b">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.966598092234203</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.950852631608764</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186" t="s">
+        <v>159</v>
+      </c>
+      <c r="C186" t="s">
+        <v>165</v>
+      </c>
+      <c r="D186" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" t="b">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.963207897208435</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.950852631608764</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>116</v>
+      </c>
+      <c r="B187" t="s">
+        <v>159</v>
+      </c>
+      <c r="C187" t="s">
+        <v>166</v>
+      </c>
+      <c r="D187" t="b">
+        <v>1</v>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187" t="b">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.933050195908045</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.950852631608764</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>116</v>
+      </c>
+      <c r="B188" t="s">
+        <v>159</v>
+      </c>
+      <c r="C188" t="s">
+        <v>167</v>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" t="b">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.96703885977009</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.950852631608764</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>116</v>
+      </c>
+      <c r="B189" t="s">
+        <v>159</v>
+      </c>
+      <c r="C189" t="s">
+        <v>168</v>
+      </c>
+      <c r="D189" t="b">
+        <v>1</v>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="b">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
         <v>0.929731393526467</v>
       </c>
-      <c r="H183" t="n">
+      <c r="H189" t="n">
         <v>0.950852631608764</v>
       </c>
     </row>

--- a/02-reportes-scripts/00-acomodaciones/05-inspeccion-corr.xlsx
+++ b/02-reportes-scripts/00-acomodaciones/05-inspeccion-corr.xlsx
@@ -896,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.801385609357792</v>
+        <v>0.802235702480463</v>
       </c>
       <c r="H2" t="n">
-        <v>0.814656881102291</v>
+        <v>0.81645818199962</v>
       </c>
     </row>
     <row r="3">
@@ -922,10 +922,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.830511813943055</v>
+        <v>0.831309359654614</v>
       </c>
       <c r="H3" t="n">
-        <v>0.814656881102291</v>
+        <v>0.81645818199962</v>
       </c>
     </row>
     <row r="4">
@@ -948,10 +948,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.802938457530119</v>
+        <v>0.80865297658922</v>
       </c>
       <c r="H4" t="n">
-        <v>0.814656881102291</v>
+        <v>0.81645818199962</v>
       </c>
     </row>
     <row r="5">
@@ -974,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.796369775523808</v>
+        <v>0.798438375139716</v>
       </c>
       <c r="H5" t="n">
-        <v>0.814656881102291</v>
+        <v>0.81645818199962</v>
       </c>
     </row>
     <row r="6">
@@ -1000,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.845291203565099</v>
+        <v>0.843143125174463</v>
       </c>
       <c r="H6" t="n">
-        <v>0.814656881102291</v>
+        <v>0.81645818199962</v>
       </c>
     </row>
     <row r="7">
@@ -1026,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.755860233197192</v>
+        <v>0.751522319949671</v>
       </c>
       <c r="H7" t="n">
-        <v>0.775554114689794</v>
+        <v>0.77830176564687</v>
       </c>
     </row>
     <row r="8">
@@ -1052,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.771240582395146</v>
+        <v>0.762239336780236</v>
       </c>
       <c r="H8" t="n">
-        <v>0.775554114689794</v>
+        <v>0.77830176564687</v>
       </c>
     </row>
     <row r="9">
@@ -1078,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.701804113717416</v>
+        <v>0.708045466793046</v>
       </c>
       <c r="H9" t="n">
-        <v>0.775554114689794</v>
+        <v>0.77830176564687</v>
       </c>
     </row>
     <row r="10">
@@ -1104,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.865809537142588</v>
+        <v>0.882426192629278</v>
       </c>
       <c r="H10" t="n">
-        <v>0.775554114689794</v>
+        <v>0.77830176564687</v>
       </c>
     </row>
     <row r="11">
@@ -1130,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.853031899279767</v>
+        <v>0.848438745544276</v>
       </c>
       <c r="H11" t="n">
-        <v>0.775554114689794</v>
+        <v>0.77830176564687</v>
       </c>
     </row>
     <row r="12">
@@ -1156,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.668783381556858</v>
+        <v>0.674940044158015</v>
       </c>
       <c r="H12" t="n">
-        <v>0.775554114689794</v>
+        <v>0.77830176564687</v>
       </c>
     </row>
     <row r="13">
@@ -1182,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.750675156521368</v>
+        <v>0.762302118985025</v>
       </c>
       <c r="H13" t="n">
-        <v>0.775554114689794</v>
+        <v>0.77830176564687</v>
       </c>
     </row>
     <row r="14">
@@ -1208,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.689369598698994</v>
+        <v>0.683944205638868</v>
       </c>
       <c r="H14" t="n">
-        <v>0.756906307049712</v>
+        <v>0.760685919781649</v>
       </c>
     </row>
     <row r="15">
@@ -1234,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.678120303657764</v>
+        <v>0.682206456594306</v>
       </c>
       <c r="H15" t="n">
-        <v>0.756906307049712</v>
+        <v>0.760685919781649</v>
       </c>
     </row>
     <row r="16">
@@ -1260,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.768001571023388</v>
+        <v>0.77705911735408</v>
       </c>
       <c r="H16" t="n">
-        <v>0.756906307049712</v>
+        <v>0.760685919781649</v>
       </c>
     </row>
     <row r="17">
@@ -1286,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.80926447636326</v>
+        <v>0.819952219814446</v>
       </c>
       <c r="H17" t="n">
-        <v>0.756906307049712</v>
+        <v>0.760685919781649</v>
       </c>
     </row>
     <row r="18">
@@ -1312,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.756005073348738</v>
+        <v>0.752008836163054</v>
       </c>
       <c r="H18" t="n">
-        <v>0.756906307049712</v>
+        <v>0.760685919781649</v>
       </c>
     </row>
     <row r="19">
@@ -1338,10 +1338,10 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.803659031713102</v>
+        <v>0.812724173338242</v>
       </c>
       <c r="H19" t="n">
-        <v>0.756906307049712</v>
+        <v>0.760685919781649</v>
       </c>
     </row>
     <row r="20">
@@ -1364,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.901910844704146</v>
+        <v>0.908552809915805</v>
       </c>
       <c r="H20" t="n">
-        <v>0.715914307967765</v>
+        <v>0.717382141942106</v>
       </c>
     </row>
     <row r="21">
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.901628420753458</v>
+        <v>0.902707470201856</v>
       </c>
       <c r="H21" t="n">
-        <v>0.715914307967765</v>
+        <v>0.717382141942106</v>
       </c>
     </row>
     <row r="22">
@@ -1416,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.649188870730167</v>
+        <v>0.651375668489801</v>
       </c>
       <c r="H22" t="n">
-        <v>0.715914307967765</v>
+        <v>0.717382141942106</v>
       </c>
     </row>
     <row r="23">
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.65455000936607</v>
+        <v>0.655763599447455</v>
       </c>
       <c r="H23" t="n">
-        <v>0.715914307967765</v>
+        <v>0.717382141942106</v>
       </c>
     </row>
     <row r="24">
@@ -1468,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.639370163411834</v>
+        <v>0.631561026959358</v>
       </c>
       <c r="H24" t="n">
-        <v>0.630855050658263</v>
+        <v>0.625552149862745</v>
       </c>
     </row>
     <row r="25">
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.594910827954929</v>
+        <v>0.590438078926376</v>
       </c>
       <c r="H25" t="n">
-        <v>0.630855050658263</v>
+        <v>0.625552149862745</v>
       </c>
     </row>
     <row r="26">
@@ -1520,10 +1520,10 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.650376106654063</v>
+        <v>0.644865866711185</v>
       </c>
       <c r="H26" t="n">
-        <v>0.630855050658263</v>
+        <v>0.625552149862745</v>
       </c>
     </row>
     <row r="27">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.732431931555277</v>
+        <v>0.732728403079192</v>
       </c>
       <c r="H27" t="n">
-        <v>0.630855050658263</v>
+        <v>0.625552149862745</v>
       </c>
     </row>
     <row r="28">
@@ -1702,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.864686135820733</v>
+        <v>0.857330503500402</v>
       </c>
       <c r="H33" t="n">
-        <v>0.877191910272863</v>
+        <v>0.875041479121588</v>
       </c>
     </row>
     <row r="34">
@@ -1728,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.865348658617825</v>
+        <v>0.856103890386277</v>
       </c>
       <c r="H34" t="n">
-        <v>0.877191910272863</v>
+        <v>0.875041479121588</v>
       </c>
     </row>
     <row r="35">
@@ -1754,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.876492620915227</v>
+        <v>0.882484920829778</v>
       </c>
       <c r="H35" t="n">
-        <v>0.877191910272863</v>
+        <v>0.875041479121588</v>
       </c>
     </row>
     <row r="36">
@@ -1780,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.873108519950439</v>
+        <v>0.875274612612404</v>
       </c>
       <c r="H36" t="n">
-        <v>0.877191910272863</v>
+        <v>0.875041479121588</v>
       </c>
     </row>
     <row r="37">
@@ -1806,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.888882426582752</v>
+        <v>0.897414696826695</v>
       </c>
       <c r="H37" t="n">
-        <v>0.877191910272863</v>
+        <v>0.875041479121588</v>
       </c>
     </row>
     <row r="38">
@@ -1832,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.872818127233965</v>
+        <v>0.859134859646784</v>
       </c>
       <c r="H38" t="n">
-        <v>0.877191910272863</v>
+        <v>0.875041479121588</v>
       </c>
     </row>
     <row r="39">
@@ -1858,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0.904072677366653</v>
+        <v>0.904598056651076</v>
       </c>
       <c r="H39" t="n">
-        <v>0.877191910272863</v>
+        <v>0.875041479121588</v>
       </c>
     </row>
     <row r="40">
@@ -2014,10 +2014,10 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.845981243640625</v>
+        <v>0.858715165672233</v>
       </c>
       <c r="H45" t="n">
-        <v>0.830807553684967</v>
+        <v>0.836956772452926</v>
       </c>
     </row>
     <row r="46">
@@ -2040,10 +2040,10 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0.778675026778672</v>
+        <v>0.784996820815919</v>
       </c>
       <c r="H46" t="n">
-        <v>0.830807553684967</v>
+        <v>0.836956772452926</v>
       </c>
     </row>
     <row r="47">
@@ -2066,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.914555948170328</v>
+        <v>0.91785220641068</v>
       </c>
       <c r="H47" t="n">
-        <v>0.830807553684967</v>
+        <v>0.836956772452926</v>
       </c>
     </row>
     <row r="48">
@@ -2092,10 +2092,10 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.835435944652119</v>
+        <v>0.848778992336264</v>
       </c>
       <c r="H48" t="n">
-        <v>0.830807553684967</v>
+        <v>0.836956772452926</v>
       </c>
     </row>
     <row r="49">
@@ -2118,10 +2118,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.775975929230111</v>
+        <v>0.782360139199611</v>
       </c>
       <c r="H49" t="n">
-        <v>0.830807553684967</v>
+        <v>0.836956772452926</v>
       </c>
     </row>
     <row r="50">
@@ -2144,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.893920105040748</v>
+        <v>0.892954759065665</v>
       </c>
       <c r="H50" t="n">
-        <v>0.830807553684967</v>
+        <v>0.836956772452926</v>
       </c>
     </row>
     <row r="51">
@@ -2170,10 +2170,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0.751776045609344</v>
+        <v>0.752946101182797</v>
       </c>
       <c r="H51" t="n">
-        <v>0.651483032198397</v>
+        <v>0.652518829639863</v>
       </c>
     </row>
     <row r="52">
@@ -2196,10 +2196,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0.636340489567604</v>
+        <v>0.636514334828632</v>
       </c>
       <c r="H52" t="n">
-        <v>0.651483032198397</v>
+        <v>0.652518829639863</v>
       </c>
     </row>
     <row r="53">
@@ -2222,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0.610233665318827</v>
+        <v>0.612297739214149</v>
       </c>
       <c r="H53" t="n">
-        <v>0.651483032198397</v>
+        <v>0.652518829639863</v>
       </c>
     </row>
     <row r="54">
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.713999579010071</v>
+        <v>0.711502753541261</v>
       </c>
       <c r="H54" t="n">
-        <v>0.651483032198397</v>
+        <v>0.652518829639863</v>
       </c>
     </row>
     <row r="55">
@@ -2274,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0.636750610013376</v>
+        <v>0.639195281710671</v>
       </c>
       <c r="H55" t="n">
-        <v>0.627985207478008</v>
+        <v>0.631550399895175</v>
       </c>
     </row>
     <row r="56">
@@ -2300,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>0.591240399549881</v>
+        <v>0.602532435661123</v>
       </c>
       <c r="H56" t="n">
-        <v>0.627985207478008</v>
+        <v>0.631550399895175</v>
       </c>
     </row>
     <row r="57">
@@ -2326,10 +2326,10 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.626494814001026</v>
+        <v>0.629885180662717</v>
       </c>
       <c r="H57" t="n">
-        <v>0.627985207478008</v>
+        <v>0.631550399895175</v>
       </c>
     </row>
     <row r="58">
@@ -2352,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.645293587808759</v>
+        <v>0.646413203768469</v>
       </c>
       <c r="H58" t="n">
-        <v>0.627985207478008</v>
+        <v>0.631550399895175</v>
       </c>
     </row>
     <row r="59">
@@ -2378,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0.795476236409173</v>
+        <v>0.789199739172824</v>
       </c>
       <c r="H59" t="n">
-        <v>0.767934994714087</v>
+        <v>0.760497716027491</v>
       </c>
     </row>
     <row r="60">
@@ -2404,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.745520669267478</v>
+        <v>0.73688636355387</v>
       </c>
       <c r="H60" t="n">
-        <v>0.767934994714087</v>
+        <v>0.760497716027491</v>
       </c>
     </row>
     <row r="61">
@@ -2430,10 +2430,10 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0.766615787431271</v>
+        <v>0.756476141314556</v>
       </c>
       <c r="H61" t="n">
-        <v>0.767934994714087</v>
+        <v>0.760497716027491</v>
       </c>
     </row>
     <row r="62">
@@ -2456,10 +2456,10 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.774813928015432</v>
+        <v>0.772168113951886</v>
       </c>
       <c r="H62" t="n">
-        <v>0.767934994714087</v>
+        <v>0.760497716027491</v>
       </c>
     </row>
     <row r="63">
@@ -2482,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.75385639847382</v>
+        <v>0.728535866301539</v>
       </c>
       <c r="H63" t="n">
-        <v>0.819544836726484</v>
+        <v>0.806440841870589</v>
       </c>
     </row>
     <row r="64">
@@ -2508,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.804762887918868</v>
+        <v>0.781710781138488</v>
       </c>
       <c r="H64" t="n">
-        <v>0.819544836726484</v>
+        <v>0.806440841870589</v>
       </c>
     </row>
     <row r="65">
@@ -2534,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.878164711622094</v>
+        <v>0.871427502105907</v>
       </c>
       <c r="H65" t="n">
-        <v>0.819544836726484</v>
+        <v>0.806440841870589</v>
       </c>
     </row>
     <row r="66">
@@ -2560,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0.819498806706679</v>
+        <v>0.818330410887316</v>
       </c>
       <c r="H66" t="n">
-        <v>0.819544836726484</v>
+        <v>0.806440841870589</v>
       </c>
     </row>
     <row r="67">
@@ -2586,10 +2586,10 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.846571101086402</v>
+        <v>0.830615035644578</v>
       </c>
       <c r="H67" t="n">
-        <v>0.819544836726484</v>
+        <v>0.806440841870589</v>
       </c>
     </row>
     <row r="68">
@@ -2612,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.788240532745165</v>
+        <v>0.773821663466843</v>
       </c>
       <c r="H68" t="n">
-        <v>0.819544836726484</v>
+        <v>0.806440841870589</v>
       </c>
     </row>
     <row r="69">
@@ -2638,10 +2638,10 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0.868263319080013</v>
+        <v>0.875492659724274</v>
       </c>
       <c r="H69" t="n">
-        <v>0.819544836726484</v>
+        <v>0.806440841870589</v>
       </c>
     </row>
     <row r="70">
@@ -2664,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.76312808498158</v>
+        <v>0.776670572836691</v>
       </c>
       <c r="H70" t="n">
-        <v>0.773887105645654</v>
+        <v>0.778666854872025</v>
       </c>
     </row>
     <row r="71">
@@ -2690,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.73681706692615</v>
+        <v>0.749078176232057</v>
       </c>
       <c r="H71" t="n">
-        <v>0.773887105645654</v>
+        <v>0.778666854872025</v>
       </c>
     </row>
     <row r="72">
@@ -2716,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0.854865159260893</v>
+        <v>0.869645007602933</v>
       </c>
       <c r="H72" t="n">
-        <v>0.773887105645654</v>
+        <v>0.778666854872025</v>
       </c>
     </row>
     <row r="73">
@@ -2742,10 +2742,10 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0.772376848560246</v>
+        <v>0.767769753280835</v>
       </c>
       <c r="H73" t="n">
-        <v>0.773887105645654</v>
+        <v>0.778666854872025</v>
       </c>
     </row>
     <row r="74">
@@ -2768,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.756499269524565</v>
+        <v>0.746145564775793</v>
       </c>
       <c r="H74" t="n">
-        <v>0.773887105645654</v>
+        <v>0.778666854872025</v>
       </c>
     </row>
     <row r="75">
@@ -2794,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0.86807235086131</v>
+        <v>0.848454696249333</v>
       </c>
       <c r="H75" t="n">
-        <v>0.777585947919062</v>
+        <v>0.776693977125883</v>
       </c>
     </row>
     <row r="76">
@@ -2820,10 +2820,10 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.80006614259876</v>
+        <v>0.819704666470377</v>
       </c>
       <c r="H76" t="n">
-        <v>0.777585947919062</v>
+        <v>0.776693977125883</v>
       </c>
     </row>
     <row r="77">
@@ -2846,10 +2846,10 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.837998111906668</v>
+        <v>0.837406885211377</v>
       </c>
       <c r="H77" t="n">
-        <v>0.777585947919062</v>
+        <v>0.776693977125883</v>
       </c>
     </row>
     <row r="78">
@@ -2872,10 +2872,10 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.743029448101979</v>
+        <v>0.738487111279432</v>
       </c>
       <c r="H78" t="n">
-        <v>0.777585947919062</v>
+        <v>0.776693977125883</v>
       </c>
     </row>
     <row r="79">
@@ -2898,10 +2898,10 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.668913008408143</v>
+        <v>0.672266345317512</v>
       </c>
       <c r="H79" t="n">
-        <v>0.777585947919062</v>
+        <v>0.776693977125883</v>
       </c>
     </row>
     <row r="80">
@@ -2924,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.759436100572032</v>
+        <v>0.751250804843542</v>
       </c>
       <c r="H80" t="n">
-        <v>0.777585947919062</v>
+        <v>0.776693977125883</v>
       </c>
     </row>
     <row r="81">
@@ -2950,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.730891554465246</v>
+        <v>0.683385169645483</v>
       </c>
       <c r="H81" t="n">
-        <v>0.60092705181452</v>
+        <v>0.601695709577674</v>
       </c>
     </row>
     <row r="82">
@@ -2976,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0.641493825265899</v>
+        <v>0.684562867411203</v>
       </c>
       <c r="H82" t="n">
-        <v>0.60092705181452</v>
+        <v>0.601695709577674</v>
       </c>
     </row>
     <row r="83">
@@ -3002,10 +3002,10 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0.515335351700395</v>
+        <v>0.521968265018898</v>
       </c>
       <c r="H83" t="n">
-        <v>0.60092705181452</v>
+        <v>0.601695709577674</v>
       </c>
     </row>
     <row r="84">
@@ -3028,10 +3028,10 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.548839275892498</v>
+        <v>0.534679501104525</v>
       </c>
       <c r="H84" t="n">
-        <v>0.60092705181452</v>
+        <v>0.601695709577674</v>
       </c>
     </row>
     <row r="85">
@@ -3054,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.569857468285394</v>
+        <v>0.586549194470969</v>
       </c>
       <c r="H85" t="n">
-        <v>0.60092705181452</v>
+        <v>0.601695709577674</v>
       </c>
     </row>
     <row r="86">
@@ -3080,10 +3080,10 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.660853731444463</v>
+        <v>0.666803263524396</v>
       </c>
       <c r="H86" t="n">
-        <v>0.60092705181452</v>
+        <v>0.601695709577674</v>
       </c>
     </row>
     <row r="87">
@@ -3106,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0.632725685813515</v>
+        <v>0.632307651456771</v>
       </c>
       <c r="H87" t="n">
-        <v>0.60092705181452</v>
+        <v>0.601695709577674</v>
       </c>
     </row>
     <row r="88">
@@ -3132,10 +3132,10 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0.569206955314767</v>
+        <v>0.589587222632097</v>
       </c>
       <c r="H88" t="n">
-        <v>0.60092705181452</v>
+        <v>0.601695709577674</v>
       </c>
     </row>
     <row r="89">
@@ -3158,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.724794987061822</v>
+        <v>0.731613942929873</v>
       </c>
       <c r="H89" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="90">
@@ -3184,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0.802745878184619</v>
+        <v>0.821998708954336</v>
       </c>
       <c r="H90" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="91">
@@ -3210,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0.859415930012906</v>
+        <v>0.839971813476642</v>
       </c>
       <c r="H91" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="92">
@@ -3236,10 +3236,10 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0.863847543150159</v>
+        <v>0.83476869232429</v>
       </c>
       <c r="H92" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="93">
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0.964491760870649</v>
+        <v>0.963581745756254</v>
       </c>
       <c r="H93" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="94">
@@ -3288,10 +3288,10 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0.845708734286932</v>
+        <v>0.833530323541075</v>
       </c>
       <c r="H94" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="95">
@@ -3314,10 +3314,10 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0.92679886489811</v>
+        <v>0.918719573075177</v>
       </c>
       <c r="H95" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="96">
@@ -3340,10 +3340,10 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.858683417014405</v>
+        <v>0.875315231781012</v>
       </c>
       <c r="H96" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="97">
@@ -3366,10 +3366,10 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0.914701328234108</v>
+        <v>0.932562138554055</v>
       </c>
       <c r="H97" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="98">
@@ -3392,10 +3392,10 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0.842169835459721</v>
+        <v>0.805064787564598</v>
       </c>
       <c r="H98" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="99">
@@ -3418,10 +3418,10 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.872692009417336</v>
+        <v>0.855740870786354</v>
       </c>
       <c r="H99" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="100">
@@ -3444,10 +3444,10 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0.940524858702877</v>
+        <v>0.938529455771252</v>
       </c>
       <c r="H100" t="n">
-        <v>0.868599259944792</v>
+        <v>0.864048863029312</v>
       </c>
     </row>
     <row r="101">
@@ -3470,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.886105773103004</v>
+        <v>0.861859452731877</v>
       </c>
       <c r="H101" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="102">
@@ -3496,10 +3496,10 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0.923523142348247</v>
+        <v>0.907906661452111</v>
       </c>
       <c r="H102" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="103">
@@ -3522,10 +3522,10 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>0.801855178379938</v>
+        <v>0.799893993364799</v>
       </c>
       <c r="H103" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="104">
@@ -3548,10 +3548,10 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0.798081238262209</v>
+        <v>0.784953064115635</v>
       </c>
       <c r="H104" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="105">
@@ -3574,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0.791348535852426</v>
+        <v>0.794573753108929</v>
       </c>
       <c r="H105" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="106">
@@ -3600,10 +3600,10 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0.806394801601684</v>
+        <v>0.819839671242064</v>
       </c>
       <c r="H106" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="107">
@@ -3626,10 +3626,10 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.895627778989184</v>
+        <v>0.89096971272061</v>
       </c>
       <c r="H107" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="108">
@@ -3652,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.812062479145328</v>
+        <v>0.831269829717005</v>
       </c>
       <c r="H108" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="109">
@@ -3678,10 +3678,10 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.787609743381133</v>
+        <v>0.787811410309862</v>
       </c>
       <c r="H109" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="110">
@@ -3704,10 +3704,10 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.856496974823866</v>
+        <v>0.878002104933211</v>
       </c>
       <c r="H110" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="111">
@@ -3730,10 +3730,10 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0.924263417445423</v>
+        <v>0.939660740214892</v>
       </c>
       <c r="H111" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="112">
@@ -3756,10 +3756,10 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0.944072174118612</v>
+        <v>0.934913352937267</v>
       </c>
       <c r="H112" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="113">
@@ -3782,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.865570180203152</v>
+        <v>0.846136957237659</v>
       </c>
       <c r="H113" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="114">
@@ -3808,10 +3808,10 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.951936925907157</v>
+        <v>0.949846132894492</v>
       </c>
       <c r="H114" t="n">
-        <v>0.859353323887208</v>
+        <v>0.857817954873655</v>
       </c>
     </row>
     <row r="115">
@@ -3834,10 +3834,10 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8663189044064</v>
+        <v>0.856853136808802</v>
       </c>
       <c r="H115" t="n">
-        <v>0.840954886455481</v>
+        <v>0.839454126337151</v>
       </c>
     </row>
     <row r="116">
@@ -3860,10 +3860,10 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>0.795210761414204</v>
+        <v>0.789521891533467</v>
       </c>
       <c r="H116" t="n">
-        <v>0.840954886455481</v>
+        <v>0.839454126337151</v>
       </c>
     </row>
     <row r="117">
@@ -3886,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.789952012079001</v>
+        <v>0.789947520475528</v>
       </c>
       <c r="H117" t="n">
-        <v>0.840954886455481</v>
+        <v>0.839454126337151</v>
       </c>
     </row>
     <row r="118">
@@ -3912,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>0.905290693440407</v>
+        <v>0.904623351574857</v>
       </c>
       <c r="H118" t="n">
-        <v>0.840954886455481</v>
+        <v>0.839454126337151</v>
       </c>
     </row>
     <row r="119">
@@ -3938,10 +3938,10 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0.863573814854838</v>
+        <v>0.854017407199595</v>
       </c>
       <c r="H119" t="n">
-        <v>0.840954886455481</v>
+        <v>0.839454126337151</v>
       </c>
     </row>
     <row r="120">
@@ -3964,10 +3964,10 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.773220288454141</v>
+        <v>0.776584586386588</v>
       </c>
       <c r="H120" t="n">
-        <v>0.840954886455481</v>
+        <v>0.839454126337151</v>
       </c>
     </row>
     <row r="121">
@@ -3990,10 +3990,10 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.832702057958974</v>
+        <v>0.841435936444649</v>
       </c>
       <c r="H121" t="n">
-        <v>0.840954886455481</v>
+        <v>0.839454126337151</v>
       </c>
     </row>
     <row r="122">
@@ -4016,10 +4016,10 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.886993859418305</v>
+        <v>0.88054852263547</v>
       </c>
       <c r="H122" t="n">
-        <v>0.840954886455481</v>
+        <v>0.839454126337151</v>
       </c>
     </row>
     <row r="123">
@@ -4042,10 +4042,10 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>0.887810053533381</v>
+        <v>0.890348399720475</v>
       </c>
       <c r="H123" t="n">
-        <v>0.840954886455481</v>
+        <v>0.839454126337151</v>
       </c>
     </row>
     <row r="124">
@@ -4068,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>0.882088021351245</v>
+        <v>0.883796769104653</v>
       </c>
       <c r="H124" t="n">
-        <v>0.827828947574631</v>
+        <v>0.82834626038264</v>
       </c>
     </row>
     <row r="125">
@@ -4094,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0.828929257488954</v>
+        <v>0.829137628768851</v>
       </c>
       <c r="H125" t="n">
-        <v>0.827828947574631</v>
+        <v>0.82834626038264</v>
       </c>
     </row>
     <row r="126">
@@ -4120,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.895025069887796</v>
+        <v>0.896208029804363</v>
       </c>
       <c r="H126" t="n">
-        <v>0.827828947574631</v>
+        <v>0.82834626038264</v>
       </c>
     </row>
     <row r="127">
@@ -4146,10 +4146,10 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0.807583430633351</v>
+        <v>0.808210898235888</v>
       </c>
       <c r="H127" t="n">
-        <v>0.827828947574631</v>
+        <v>0.82834626038264</v>
       </c>
     </row>
     <row r="128">
@@ -4172,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0.792754805604068</v>
+        <v>0.792690323364055</v>
       </c>
       <c r="H128" t="n">
-        <v>0.827828947574631</v>
+        <v>0.82834626038264</v>
       </c>
     </row>
     <row r="129">
@@ -4198,10 +4198,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9072184639215</v>
+        <v>0.906886699820235</v>
       </c>
       <c r="H129" t="n">
-        <v>0.891448435491525</v>
+        <v>0.891125290423312</v>
       </c>
     </row>
     <row r="130">
@@ -4224,10 +4224,10 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0.892934681766456</v>
+        <v>0.892409302798476</v>
       </c>
       <c r="H130" t="n">
-        <v>0.891448435491525</v>
+        <v>0.891125290423312</v>
       </c>
     </row>
     <row r="131">
@@ -4250,10 +4250,10 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0.890576480545949</v>
+        <v>0.890206796732785</v>
       </c>
       <c r="H131" t="n">
-        <v>0.891448435491525</v>
+        <v>0.891125290423312</v>
       </c>
     </row>
     <row r="132">
@@ -4276,10 +4276,10 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>0.899741800829743</v>
+        <v>0.899982143867267</v>
       </c>
       <c r="H132" t="n">
-        <v>0.891448435491525</v>
+        <v>0.891125290423312</v>
       </c>
     </row>
     <row r="133">
@@ -4302,10 +4302,10 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0.887745590265828</v>
+        <v>0.887047283546138</v>
       </c>
       <c r="H133" t="n">
-        <v>0.891448435491525</v>
+        <v>0.891125290423312</v>
       </c>
     </row>
     <row r="134">
@@ -4328,10 +4328,10 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>0.867519359851895</v>
+        <v>0.866992370704429</v>
       </c>
       <c r="H134" t="n">
-        <v>0.891448435491525</v>
+        <v>0.891125290423312</v>
       </c>
     </row>
     <row r="135">
@@ -4354,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0.900465262374789</v>
+        <v>0.900424368937568</v>
       </c>
       <c r="H135" t="n">
-        <v>0.891448435491525</v>
+        <v>0.891125290423312</v>
       </c>
     </row>
     <row r="136">
@@ -4380,10 +4380,10 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>0.891569055782161</v>
+        <v>0.891415386914256</v>
       </c>
       <c r="H136" t="n">
-        <v>0.86198246215949</v>
+        <v>0.861979018989382</v>
       </c>
     </row>
     <row r="137">
@@ -4406,10 +4406,10 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.912596422956752</v>
+        <v>0.912634588205826</v>
       </c>
       <c r="H137" t="n">
-        <v>0.86198246215949</v>
+        <v>0.861979018989382</v>
       </c>
     </row>
     <row r="138">
@@ -4432,10 +4432,10 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>0.798090376131478</v>
+        <v>0.797991688012366</v>
       </c>
       <c r="H138" t="n">
-        <v>0.86198246215949</v>
+        <v>0.861979018989382</v>
       </c>
     </row>
     <row r="139">
@@ -4458,10 +4458,10 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>0.860174985623231</v>
+        <v>0.860070681728212</v>
       </c>
       <c r="H139" t="n">
-        <v>0.86198246215949</v>
+        <v>0.861979018989382</v>
       </c>
     </row>
     <row r="140">
@@ -4484,10 +4484,10 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>0.851511875288519</v>
+        <v>0.851314828706859</v>
       </c>
       <c r="H140" t="n">
-        <v>0.86198246215949</v>
+        <v>0.861979018989382</v>
       </c>
     </row>
     <row r="141">
@@ -4510,10 +4510,10 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>0.835781099835487</v>
+        <v>0.836547949689158</v>
       </c>
       <c r="H141" t="n">
-        <v>0.86198246215949</v>
+        <v>0.861979018989382</v>
       </c>
     </row>
     <row r="142">
@@ -4536,10 +4536,10 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>0.908897906739703</v>
+        <v>0.908814035525474</v>
       </c>
       <c r="H142" t="n">
-        <v>0.86198246215949</v>
+        <v>0.861979018989382</v>
       </c>
     </row>
     <row r="143">
@@ -4562,10 +4562,10 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0.842236184974088</v>
+        <v>0.842777781749893</v>
       </c>
       <c r="H143" t="n">
-        <v>0.855873234305033</v>
+        <v>0.85617543779406</v>
       </c>
     </row>
     <row r="144">
@@ -4588,10 +4588,10 @@
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0.845662969242495</v>
+        <v>0.846124037609017</v>
       </c>
       <c r="H144" t="n">
-        <v>0.855873234305033</v>
+        <v>0.85617543779406</v>
       </c>
     </row>
     <row r="145">
@@ -4614,10 +4614,10 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0.901114482990253</v>
+        <v>0.901601018676475</v>
       </c>
       <c r="H145" t="n">
-        <v>0.855873234305033</v>
+        <v>0.85617543779406</v>
       </c>
     </row>
     <row r="146">
@@ -4640,10 +4640,10 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>0.882752899959062</v>
+        <v>0.883049929819456</v>
       </c>
       <c r="H146" t="n">
-        <v>0.855873234305033</v>
+        <v>0.85617543779406</v>
       </c>
     </row>
     <row r="147">
@@ -4666,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>0.876611502710582</v>
+        <v>0.87636463720391</v>
       </c>
       <c r="H147" t="n">
-        <v>0.855873234305033</v>
+        <v>0.85617543779406</v>
       </c>
     </row>
     <row r="148">
@@ -4692,10 +4692,10 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>0.81385437235178</v>
+        <v>0.813661401865843</v>
       </c>
       <c r="H148" t="n">
-        <v>0.855873234305033</v>
+        <v>0.85617543779406</v>
       </c>
     </row>
     <row r="149">
@@ -4718,10 +4718,10 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0.803660537921549</v>
+        <v>0.804183793324729</v>
       </c>
       <c r="H149" t="n">
-        <v>0.855873234305033</v>
+        <v>0.85617543779406</v>
       </c>
     </row>
     <row r="150">
@@ -4744,10 +4744,10 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0.923562387895371</v>
+        <v>0.924042655154773</v>
       </c>
       <c r="H150" t="n">
-        <v>0.855873234305033</v>
+        <v>0.85617543779406</v>
       </c>
     </row>
     <row r="151">
@@ -4767,13 +4767,13 @@
         <v>1</v>
       </c>
       <c r="F151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>0.90808170461343</v>
+        <v>0.908212295344602</v>
       </c>
       <c r="H151" t="n">
-        <v>0.855873234305033</v>
+        <v>0.85617543779406</v>
       </c>
     </row>
     <row r="152">
@@ -4796,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>0.888230969948374</v>
+        <v>0.888245948462094</v>
       </c>
       <c r="H152" t="n">
-        <v>0.892473267007893</v>
+        <v>0.892432437635349</v>
       </c>
     </row>
     <row r="153">
@@ -4822,10 +4822,10 @@
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>0.881762263426298</v>
+        <v>0.882525416374276</v>
       </c>
       <c r="H153" t="n">
-        <v>0.892473267007893</v>
+        <v>0.892432437635349</v>
       </c>
     </row>
     <row r="154">
@@ -4848,10 +4848,10 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0.917136667571309</v>
+        <v>0.917217714926099</v>
       </c>
       <c r="H154" t="n">
-        <v>0.892473267007893</v>
+        <v>0.892432437635349</v>
       </c>
     </row>
     <row r="155">
@@ -4874,10 +4874,10 @@
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>0.90763407170061</v>
+        <v>0.907568954213265</v>
       </c>
       <c r="H155" t="n">
-        <v>0.892473267007893</v>
+        <v>0.892432437635349</v>
       </c>
     </row>
     <row r="156">
@@ -4900,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0.905302621756597</v>
+        <v>0.905454970671816</v>
       </c>
       <c r="H156" t="n">
-        <v>0.892473267007893</v>
+        <v>0.892432437635349</v>
       </c>
     </row>
     <row r="157">
@@ -4926,10 +4926,10 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>0.892327739763538</v>
+        <v>0.89226307090682</v>
       </c>
       <c r="H157" t="n">
-        <v>0.892473267007893</v>
+        <v>0.892432437635349</v>
       </c>
     </row>
     <row r="158">
@@ -4952,10 +4952,10 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>0.855550264447505</v>
+        <v>0.854689963187695</v>
       </c>
       <c r="H158" t="n">
-        <v>0.892473267007893</v>
+        <v>0.892432437635349</v>
       </c>
     </row>
     <row r="159">
@@ -4978,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>0.893306639810434</v>
+        <v>0.893007345768774</v>
       </c>
       <c r="H159" t="n">
-        <v>0.892473267007893</v>
+        <v>0.892432437635349</v>
       </c>
     </row>
     <row r="160">
@@ -5004,10 +5004,10 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>0.867524960350192</v>
+        <v>0.867571353134918</v>
       </c>
       <c r="H160" t="n">
-        <v>0.876998909573429</v>
+        <v>0.876910639750133</v>
       </c>
     </row>
     <row r="161">
@@ -5030,10 +5030,10 @@
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>0.870969133808976</v>
+        <v>0.870776010148894</v>
       </c>
       <c r="H161" t="n">
-        <v>0.876998909573429</v>
+        <v>0.876910639750133</v>
       </c>
     </row>
     <row r="162">
@@ -5056,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>0.877193719572266</v>
+        <v>0.877195460832835</v>
       </c>
       <c r="H162" t="n">
-        <v>0.876998909573429</v>
+        <v>0.876910639750133</v>
       </c>
     </row>
     <row r="163">
@@ -5082,10 +5082,10 @@
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>0.888780877586689</v>
+        <v>0.88849152442359</v>
       </c>
       <c r="H163" t="n">
-        <v>0.876998909573429</v>
+        <v>0.876910639750133</v>
       </c>
     </row>
     <row r="164">
@@ -5108,10 +5108,10 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>0.882177061124515</v>
+        <v>0.882137783641192</v>
       </c>
       <c r="H164" t="n">
-        <v>0.876998909573429</v>
+        <v>0.876910639750133</v>
       </c>
     </row>
     <row r="165">
@@ -5134,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.886974250340561</v>
+        <v>0.88570282969903</v>
       </c>
       <c r="H165" t="n">
-        <v>0.804178133265818</v>
+        <v>0.803710458477985</v>
       </c>
     </row>
     <row r="166">
@@ -5160,10 +5160,10 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>0.779779540338042</v>
+        <v>0.779566714439301</v>
       </c>
       <c r="H166" t="n">
-        <v>0.804178133265818</v>
+        <v>0.803710458477985</v>
       </c>
     </row>
     <row r="167">
@@ -5186,10 +5186,10 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0.835139059982367</v>
+        <v>0.834727992979384</v>
       </c>
       <c r="H167" t="n">
-        <v>0.804178133265818</v>
+        <v>0.803710458477985</v>
       </c>
     </row>
     <row r="168">
@@ -5212,10 +5212,10 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>0.752271084237914</v>
+        <v>0.75181444846705</v>
       </c>
       <c r="H168" t="n">
-        <v>0.804178133265818</v>
+        <v>0.803710458477985</v>
       </c>
     </row>
     <row r="169">
@@ -5238,10 +5238,10 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0.856355258080002</v>
+        <v>0.856089509560026</v>
       </c>
       <c r="H169" t="n">
-        <v>0.804178133265818</v>
+        <v>0.803710458477985</v>
       </c>
     </row>
     <row r="170">
@@ -5264,10 +5264,10 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>0.950048768372738</v>
+        <v>0.950583690376564</v>
       </c>
       <c r="H170" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="171">
@@ -5290,10 +5290,10 @@
         <v>1</v>
       </c>
       <c r="G171" t="n">
-        <v>0.901597606477408</v>
+        <v>0.901658960886697</v>
       </c>
       <c r="H171" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="172">
@@ -5316,10 +5316,10 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0.918455411556516</v>
+        <v>0.918164588364734</v>
       </c>
       <c r="H172" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="173">
@@ -5342,10 +5342,10 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>0.96401443103568</v>
+        <v>0.964140373282212</v>
       </c>
       <c r="H173" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="174">
@@ -5368,10 +5368,10 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>0.939322481725711</v>
+        <v>0.93969008012941</v>
       </c>
       <c r="H174" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="175">
@@ -5394,10 +5394,10 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0.942094341726136</v>
+        <v>0.942251762211155</v>
       </c>
       <c r="H175" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="176">
@@ -5420,10 +5420,10 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>0.960557269386782</v>
+        <v>0.960780831718861</v>
       </c>
       <c r="H176" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="177">
@@ -5446,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>0.947482150944539</v>
+        <v>0.947361927650049</v>
       </c>
       <c r="H177" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="178">
@@ -5472,10 +5472,10 @@
         <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>0.949824924414919</v>
+        <v>0.949691010595371</v>
       </c>
       <c r="H178" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="179">
@@ -5498,10 +5498,10 @@
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>0.913501873733887</v>
+        <v>0.912676567096633</v>
       </c>
       <c r="H179" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="180">
@@ -5524,10 +5524,10 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>0.917584336976634</v>
+        <v>0.91671863741556</v>
       </c>
       <c r="H180" t="n">
-        <v>0.934747993005398</v>
+        <v>0.934633596953697</v>
       </c>
     </row>
     <row r="181">
@@ -5550,10 +5550,10 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>0.943103140627284</v>
+        <v>0.942871539717238</v>
       </c>
       <c r="H181" t="n">
-        <v>0.950852631608764</v>
+        <v>0.950789169113364</v>
       </c>
     </row>
     <row r="182">
@@ -5576,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>0.938418812080215</v>
+        <v>0.938265353824344</v>
       </c>
       <c r="H182" t="n">
-        <v>0.950852631608764</v>
+        <v>0.950789169113364</v>
       </c>
     </row>
     <row r="183">
@@ -5602,10 +5602,10 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>0.963595899627589</v>
+        <v>0.963822193851625</v>
       </c>
       <c r="H183" t="n">
-        <v>0.950852631608764</v>
+        <v>0.950789169113364</v>
       </c>
     </row>
     <row r="184">
@@ -5628,10 +5628,10 @@
         <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0.972841535307988</v>
+        <v>0.973140086865384</v>
       </c>
       <c r="H184" t="n">
-        <v>0.950852631608764</v>
+        <v>0.950789169113364</v>
       </c>
     </row>
     <row r="185">
@@ -5654,10 +5654,10 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>0.966598092234203</v>
+        <v>0.966388461892917</v>
       </c>
       <c r="H185" t="n">
-        <v>0.950852631608764</v>
+        <v>0.950789169113364</v>
       </c>
     </row>
     <row r="186">
@@ -5680,10 +5680,10 @@
         <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>0.963207897208435</v>
+        <v>0.963059800996257</v>
       </c>
       <c r="H186" t="n">
-        <v>0.950852631608764</v>
+        <v>0.950789169113364</v>
       </c>
     </row>
     <row r="187">
@@ -5706,10 +5706,10 @@
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>0.933050195908045</v>
+        <v>0.932846056680457</v>
       </c>
       <c r="H187" t="n">
-        <v>0.950852631608764</v>
+        <v>0.950789169113364</v>
       </c>
     </row>
     <row r="188">
@@ -5732,10 +5732,10 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>0.96703885977009</v>
+        <v>0.967129219490896</v>
       </c>
       <c r="H188" t="n">
-        <v>0.950852631608764</v>
+        <v>0.950789169113364</v>
       </c>
     </row>
     <row r="189">
@@ -5758,10 +5758,10 @@
         <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>0.929731393526467</v>
+        <v>0.929653072297166</v>
       </c>
       <c r="H189" t="n">
-        <v>0.950852631608764</v>
+        <v>0.950789169113364</v>
       </c>
     </row>
   </sheetData>

--- a/02-reportes-scripts/00-acomodaciones/05-inspeccion-corr.xlsx
+++ b/02-reportes-scripts/00-acomodaciones/05-inspeccion-corr.xlsx
@@ -293,7 +293,7 @@
     <t xml:space="preserve">DOC2SCYT_CREEAPR</t>
   </si>
   <si>
-    <t xml:space="preserve">DOC2SCYT_CREEEPISTEM</t>
+    <t xml:space="preserve">DOC2SCYT_CREEEPISTE</t>
   </si>
   <si>
     <t xml:space="preserve">p14_08</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">p16_14</t>
   </si>
   <si>
-    <t xml:space="preserve">DOC2SCYT_AUTCOMPCRIT</t>
+    <t xml:space="preserve">DOC2SCYT_AUTCOMPCRI</t>
   </si>
   <si>
     <t xml:space="preserve">p17_06</t>
